--- a/Copypegaedited.xlsx
+++ b/Copypegaedited.xlsx
@@ -548,8 +548,8 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F171"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -699,11 +699,11 @@
       </c>
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="25" t="n">
-        <v>283000.18</v>
+        <v>1234198.7</v>
       </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="25" t="n">
-        <v>578864.64</v>
+        <v>809420.88</v>
       </c>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="9" t="n"/>
@@ -720,7 +720,7 @@
       </c>
       <c r="D12" s="5" t="n"/>
       <c r="E12" s="25" t="n">
-        <v>0</v>
+        <v>389999.5</v>
       </c>
       <c r="F12" s="2" t="n"/>
     </row>
@@ -732,11 +732,11 @@
       </c>
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="26" t="n">
-        <v>433000.18</v>
+        <v>1384198.7</v>
       </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="26" t="n">
-        <v>578864.64</v>
+        <v>1199420.38</v>
       </c>
       <c r="F13" s="2" t="n"/>
     </row>
@@ -768,55 +768,55 @@
       </c>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="25" t="n">
-        <v>108822.3</v>
+        <v>473924.96</v>
       </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="25" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Ingreso seshines - Ventas Abarrotes post seshin</t>
+          <t>Ingreso seshines -Virtuales</t>
         </is>
       </c>
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="25" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="25" t="n">
-        <v>0</v>
+        <v>547800.34</v>
       </c>
       <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Ingreso seshines - Jakata</t>
         </is>
       </c>
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="25" t="n">
-        <v>142636.26</v>
+        <v>60000</v>
       </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="25" t="n">
-        <v>60000</v>
+        <v>118864</v>
       </c>
       <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Dia de zazen</t>
+          <t>Ingreso seshines - Ventas Abarrotes post seshin</t>
         </is>
       </c>
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="25" t="n">
-        <v>24000</v>
+        <v>73075</v>
       </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="25" t="n">
@@ -827,41 +827,53 @@
     <row r="20" ht="27" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
+          <t>Talleres</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="25" t="n">
+        <v>210000</v>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="25" t="n">
+        <v>47278.16</v>
+      </c>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Dia de zazen</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
           <t>Total ingresos actividades</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="26" t="n">
-        <v>278458.56</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="26" t="n">
-        <v>110000</v>
-      </c>
-      <c r="F20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="25" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="25" t="n"/>
-      <c r="F21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
-      <c r="C22" s="25" t="n"/>
+      <c r="C22" s="26" t="n">
+        <v>820999.96</v>
+      </c>
       <c r="D22" s="2" t="n"/>
-      <c r="E22" s="25" t="n"/>
+      <c r="E22" s="26" t="n">
+        <v>713942.5</v>
+      </c>
       <c r="F22" s="2" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>Donaciones</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="25" t="n"/>
       <c r="D23" s="2" t="n"/>
@@ -869,87 +881,75 @@
       <c r="F23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="25" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="25" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="inlineStr">
+        <is>
+          <t>Donaciones</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="25" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="25" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Donacion</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="25" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="25" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="25" t="n">
+        <v>314006.12</v>
+      </c>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Total Donaciones</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="26" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="26" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="25" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="25" t="n"/>
-      <c r="F26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="inlineStr">
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="26" t="n">
+        <v>314006.12</v>
+      </c>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="25" t="n"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="25" t="n"/>
+      <c r="F28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="inlineStr">
         <is>
           <t>Retiros Personales</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="25" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="25" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Retiros personales - Hospedaje</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="25" t="n">
-        <v>158272.5</v>
-      </c>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Total Retiros Personales</t>
-        </is>
-      </c>
       <c r="B29" s="2" t="n"/>
-      <c r="C29" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="C29" s="25" t="n"/>
       <c r="D29" s="2" t="n"/>
-      <c r="E29" s="26" t="n">
-        <v>158272.5</v>
-      </c>
+      <c r="E29" s="25" t="n"/>
       <c r="F29" s="2" t="n"/>
     </row>
     <row r="30">
@@ -975,53 +975,49 @@
     <row r="32" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Diferencial Cambiario</t>
+          <t>Interes Ganados</t>
         </is>
       </c>
       <c r="B32" s="2" t="n"/>
       <c r="C32" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
+        <v>1600265.83</v>
+      </c>
+      <c r="D32" s="5" t="n"/>
       <c r="E32" s="25" t="n">
-        <v>259.62</v>
+        <v>577432.23</v>
       </c>
       <c r="F32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Interes Ganados</t>
+          <t>Total Ingresos Financieros</t>
         </is>
       </c>
       <c r="B33" s="2" t="n"/>
-      <c r="C33" s="25" t="n">
-        <v>418.8</v>
-      </c>
-      <c r="D33" s="5" t="n"/>
-      <c r="E33" s="25" t="n">
-        <v>0</v>
+      <c r="C33" s="26" t="n">
+        <v>1600265.83</v>
+      </c>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="26" t="n">
+        <v>577432.23</v>
       </c>
       <c r="F33" s="2" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Total Ingresos Financieros</t>
-        </is>
-      </c>
+      <c r="A34" s="2" t="n"/>
       <c r="B34" s="2" t="n"/>
-      <c r="C34" s="26" t="n">
-        <v>418.8</v>
-      </c>
+      <c r="C34" s="25" t="n"/>
       <c r="D34" s="2" t="n"/>
-      <c r="E34" s="26" t="n">
-        <v>259.62</v>
-      </c>
+      <c r="E34" s="25" t="n"/>
       <c r="F34" s="2" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
+      <c r="A35" s="13" t="inlineStr">
+        <is>
+          <t>Ingresos Miscelaneos</t>
+        </is>
+      </c>
       <c r="B35" s="2" t="n"/>
       <c r="C35" s="25" t="n"/>
       <c r="D35" s="2" t="n"/>
@@ -1029,11 +1025,7 @@
       <c r="F35" s="2" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="inlineStr">
-        <is>
-          <t>Ingresos Miscelaneos</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
       <c r="B36" s="2" t="n"/>
       <c r="C36" s="25" t="n"/>
       <c r="D36" s="2" t="n"/>
@@ -1043,69 +1035,61 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>Petates</t>
+          <t>Total Ingresos</t>
         </is>
       </c>
       <c r="B37" s="2" t="n"/>
-      <c r="C37" s="25" t="n">
-        <v>38500</v>
+      <c r="C37" s="26" t="n">
+        <v>4119470.61</v>
       </c>
       <c r="D37" s="2" t="n"/>
-      <c r="E37" s="25" t="n">
-        <v>0</v>
+      <c r="E37" s="26" t="n">
+        <v>2490795.11</v>
       </c>
       <c r="F37" s="2" t="n"/>
     </row>
     <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Tunicas y Bluzones</t>
-        </is>
-      </c>
+      <c r="A38" s="2" t="n"/>
       <c r="B38" s="2" t="n"/>
-      <c r="C38" s="25" t="n">
-        <v>21000</v>
-      </c>
+      <c r="C38" s="25" t="n"/>
       <c r="D38" s="2" t="n"/>
-      <c r="E38" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="E38" s="25" t="n"/>
       <c r="F38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n"/>
-      <c r="C39" s="25" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2" t="n"/>
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Gastos</t>
+        </is>
+      </c>
+      <c r="B39" s="24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C39" s="25" t="n"/>
+      <c r="D39" s="24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E39" s="25" t="n"/>
+      <c r="F39" s="24" t="inlineStr">
+        <is>
+          <t>Comentarios</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>Total Ingresos Miscelaneos</t>
-        </is>
-      </c>
+      <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="n"/>
-      <c r="C40" s="26" t="n">
-        <v>69500</v>
-      </c>
+      <c r="C40" s="25" t="n"/>
       <c r="D40" s="2" t="n"/>
-      <c r="E40" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E40" s="25" t="n"/>
       <c r="F40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
+      <c r="A41" s="13" t="inlineStr">
+        <is>
+          <t>Mantenimiento</t>
+        </is>
+      </c>
       <c r="B41" s="2" t="n"/>
       <c r="C41" s="25" t="n"/>
       <c r="D41" s="2" t="n"/>
@@ -1115,61 +1099,69 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Total Ingresos</t>
+          <t>Mantenimiento de edificio (Mano de Obra)</t>
         </is>
       </c>
       <c r="B42" s="2" t="n"/>
-      <c r="C42" s="26" t="n">
-        <v>791377.54</v>
+      <c r="C42" s="25" t="n">
+        <v>100000</v>
       </c>
       <c r="D42" s="2" t="n"/>
-      <c r="E42" s="26" t="n">
-        <v>867396.76</v>
+      <c r="E42" s="25" t="n">
+        <v>8000</v>
       </c>
       <c r="F42" s="2" t="n"/>
     </row>
     <row r="43" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Mantenimiento de jardines (mano de obra)</t>
+        </is>
+      </c>
       <c r="B43" s="2" t="n"/>
-      <c r="C43" s="25" t="n"/>
+      <c r="C43" s="25" t="n">
+        <v>55000</v>
+      </c>
       <c r="D43" s="2" t="n"/>
-      <c r="E43" s="25" t="n"/>
+      <c r="E43" s="25" t="n">
+        <v>16000</v>
+      </c>
       <c r="F43" s="2" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>Gastos</t>
-        </is>
-      </c>
-      <c r="B44" s="24" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C44" s="25" t="n"/>
-      <c r="D44" s="24" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E44" s="25" t="n"/>
-      <c r="F44" s="24" t="inlineStr">
-        <is>
-          <t>Comentarios</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Servicios de mantenimiento de computadora y tecnologia general (Mano de obra)</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n"/>
+      <c r="C44" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="25" t="n">
+        <v>35000</v>
+      </c>
+      <c r="F44" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Subtotal Mantenimiento Mano de obra</t>
+        </is>
+      </c>
       <c r="B45" s="2" t="n"/>
-      <c r="C45" s="25" t="n"/>
+      <c r="C45" s="26" t="n">
+        <v>155000</v>
+      </c>
       <c r="D45" s="2" t="n"/>
-      <c r="E45" s="25" t="n"/>
+      <c r="E45" s="26" t="n">
+        <v>59000</v>
+      </c>
       <c r="F45" s="2" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="inlineStr">
-        <is>
-          <t>Mantenimiento</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
       <c r="B46" s="2" t="n"/>
       <c r="C46" s="25" t="n"/>
       <c r="D46" s="2" t="n"/>
@@ -1179,89 +1171,73 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Mantenimiento de edificio (Mano de Obra)</t>
+          <t>Mantenimiento de edificio (Materiales)</t>
         </is>
       </c>
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="25" t="n">
-        <v>400000</v>
+        <v>29600</v>
       </c>
       <c r="D47" s="2" t="n"/>
       <c r="E47" s="25" t="n">
-        <v>150000</v>
+        <v>675</v>
       </c>
       <c r="F47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Mantenimiento de jardines (mano de obra)</t>
+          <t>Subtotal Mantenimiento Mano de obra</t>
         </is>
       </c>
       <c r="B48" s="2" t="n"/>
-      <c r="C48" s="25" t="n">
-        <v>0</v>
+      <c r="C48" s="26" t="n">
+        <v>29600</v>
       </c>
       <c r="D48" s="2" t="n"/>
-      <c r="E48" s="25" t="n">
-        <v>30000</v>
+      <c r="E48" s="26" t="n">
+        <v>675</v>
       </c>
       <c r="F48" s="2" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Subtotal Mantenimiento Mano de obra</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
       <c r="B49" s="2" t="n"/>
-      <c r="C49" s="26" t="n">
-        <v>400000</v>
-      </c>
+      <c r="C49" s="25" t="n"/>
       <c r="D49" s="2" t="n"/>
-      <c r="E49" s="26" t="n">
-        <v>180000</v>
-      </c>
+      <c r="E49" s="25" t="n"/>
       <c r="F49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n"/>
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="25" t="n"/>
-      <c r="D50" s="2" t="n"/>
+      <c r="D50" s="5" t="n"/>
       <c r="E50" s="25" t="n"/>
       <c r="F50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Mantenimiento de edificio (Materiales)</t>
+          <t>Total Mantenimiento</t>
         </is>
       </c>
       <c r="B51" s="2" t="n"/>
-      <c r="C51" s="25" t="n">
-        <v>73225</v>
+      <c r="C51" s="26" t="n">
+        <v>184600</v>
       </c>
       <c r="D51" s="2" t="n"/>
-      <c r="E51" s="25" t="n">
-        <v>0</v>
+      <c r="E51" s="26" t="n">
+        <v>59675</v>
       </c>
       <c r="F51" s="2" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Subtotal Mantenimiento Mano de obra</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
       <c r="B52" s="2" t="n"/>
-      <c r="C52" s="26" t="n">
-        <v>73225</v>
-      </c>
+      <c r="C52" s="25" t="n"/>
       <c r="D52" s="2" t="n"/>
-      <c r="E52" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E52" s="25" t="n"/>
       <c r="F52" s="2" t="n"/>
     </row>
     <row r="53">
@@ -1273,66 +1249,90 @@
       <c r="F53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
+      <c r="A54" s="13" t="inlineStr">
+        <is>
+          <t>Gastos actividades</t>
+        </is>
+      </c>
       <c r="B54" s="2" t="n"/>
       <c r="C54" s="25" t="n"/>
-      <c r="D54" s="5" t="n"/>
+      <c r="D54" s="2" t="n"/>
       <c r="E54" s="25" t="n"/>
       <c r="F54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Total Mantenimiento</t>
+          <t>Gasto seshin - Alimentacion</t>
         </is>
       </c>
       <c r="B55" s="2" t="n"/>
-      <c r="C55" s="26" t="n">
-        <v>473225</v>
+      <c r="C55" s="25" t="n">
+        <v>406020</v>
       </c>
       <c r="D55" s="2" t="n"/>
-      <c r="E55" s="26" t="n">
-        <v>180000</v>
+      <c r="E55" s="25" t="n">
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Gasto seshin - Tiquete Roshi</t>
+        </is>
+      </c>
       <c r="B56" s="2" t="n"/>
-      <c r="C56" s="25" t="n"/>
+      <c r="C56" s="25" t="n">
+        <v>342678.6</v>
+      </c>
       <c r="D56" s="2" t="n"/>
-      <c r="E56" s="25" t="n"/>
+      <c r="E56" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" s="2" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Subtotal Seshines</t>
+        </is>
+      </c>
       <c r="B57" s="2" t="n"/>
-      <c r="C57" s="25" t="n"/>
+      <c r="C57" s="26" t="n">
+        <v>748698.6</v>
+      </c>
       <c r="D57" s="2" t="n"/>
-      <c r="E57" s="25" t="n"/>
+      <c r="E57" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="F57" s="2" t="n"/>
     </row>
     <row r="58" ht="15" customHeight="1" thickBot="1">
-      <c r="A58" s="13" t="inlineStr">
-        <is>
-          <t>Gastos actividades</t>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Gastos actividades durante visita de Roshi</t>
         </is>
       </c>
       <c r="B58" s="2" t="n"/>
-      <c r="C58" s="25" t="n"/>
+      <c r="C58" s="25" t="n">
+        <v>16750</v>
+      </c>
       <c r="D58" s="2" t="n"/>
-      <c r="E58" s="25" t="n"/>
+      <c r="E58" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="F58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Gasto seshin - Alimentacion</t>
+          <t>Dia de zazen</t>
         </is>
       </c>
       <c r="B59" s="2" t="n"/>
       <c r="C59" s="25" t="n">
-        <v>313592</v>
+        <v>26525</v>
       </c>
       <c r="D59" s="2" t="n"/>
       <c r="E59" s="25" t="n">
@@ -1343,241 +1343,229 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Gasto seshin - Materiales de limpieza</t>
+          <t>Abarrotes Ceremonias /Meditaciones formales y otras provisiones</t>
         </is>
       </c>
       <c r="B60" s="2" t="n"/>
       <c r="C60" s="25" t="n">
-        <v>19740</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2" t="n"/>
       <c r="E60" s="25" t="n">
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="F60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>Subtotal Seshines</t>
+          <t>Total Gastos actividades</t>
         </is>
       </c>
       <c r="B61" s="2" t="n"/>
       <c r="C61" s="26" t="n">
-        <v>333332</v>
+        <v>791973.6</v>
       </c>
       <c r="D61" s="2" t="n"/>
       <c r="E61" s="26" t="n">
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="F61" s="2" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Talleres</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
       <c r="B62" s="2" t="n"/>
-      <c r="C62" s="25" t="n">
-        <v>17107</v>
-      </c>
+      <c r="C62" s="25" t="n"/>
       <c r="D62" s="2" t="n"/>
-      <c r="E62" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="E62" s="25" t="n"/>
       <c r="F62" s="2" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Total Gastos actividades</t>
+      <c r="A63" s="13" t="inlineStr">
+        <is>
+          <t>Servicios Publicos y Otros</t>
         </is>
       </c>
       <c r="B63" s="2" t="n"/>
-      <c r="C63" s="26" t="n">
-        <v>350439</v>
-      </c>
+      <c r="C63" s="25" t="n"/>
       <c r="D63" s="2" t="n"/>
-      <c r="E63" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E63" s="25" t="n"/>
       <c r="F63" s="2" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
-      <c r="C64" s="25" t="n"/>
-      <c r="D64" s="2" t="n"/>
-      <c r="E64" s="25" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Electricidad</t>
+        </is>
+      </c>
+      <c r="B64" s="16" t="n"/>
+      <c r="C64" s="25" t="n">
+        <v>59780</v>
+      </c>
+      <c r="D64" s="16" t="n"/>
+      <c r="E64" s="25" t="n">
+        <v>75135</v>
+      </c>
       <c r="F64" s="2" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="13" t="inlineStr">
-        <is>
-          <t>Servicios Publicos y Otros</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="n"/>
-      <c r="C65" s="25" t="n"/>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="25" t="n"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+      <c r="B65" s="16" t="n"/>
+      <c r="C65" s="25" t="n">
+        <v>47465.15</v>
+      </c>
+      <c r="D65" s="16" t="n"/>
+      <c r="E65" s="25" t="n">
+        <v>21425.55</v>
+      </c>
       <c r="F65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Electricidad</t>
+          <t>Correo</t>
         </is>
       </c>
       <c r="B66" s="16" t="n"/>
       <c r="C66" s="25" t="n">
-        <v>59180</v>
+        <v>0</v>
       </c>
       <c r="D66" s="16" t="n"/>
       <c r="E66" s="25" t="n">
-        <v>70070</v>
+        <v>3235</v>
       </c>
       <c r="F66" s="2" t="n"/>
     </row>
     <row r="67" ht="27" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Telefono</t>
+          <t>Total Gastos publicos y otros</t>
         </is>
       </c>
       <c r="B67" s="16" t="n"/>
-      <c r="C67" s="25" t="n">
-        <v>47454.26</v>
+      <c r="C67" s="26" t="n">
+        <v>107245.15</v>
       </c>
       <c r="D67" s="16" t="n"/>
-      <c r="E67" s="25" t="n">
-        <v>21401.94</v>
+      <c r="E67" s="26" t="n">
+        <v>99795.55</v>
       </c>
       <c r="F67" s="2" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Correo</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
       <c r="B68" s="16" t="n"/>
-      <c r="C68" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="C68" s="25" t="n"/>
       <c r="D68" s="16" t="n"/>
-      <c r="E68" s="25" t="n">
-        <v>3235</v>
-      </c>
+      <c r="E68" s="25" t="n"/>
       <c r="F68" s="2" t="n"/>
     </row>
     <row r="69" ht="40.8" customHeight="1" thickBot="1">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Impuestos municipales</t>
-        </is>
-      </c>
+      <c r="A69" s="2" t="n"/>
       <c r="B69" s="16" t="n"/>
-      <c r="C69" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" s="21" t="n"/>
-      <c r="E69" s="25" t="n">
-        <v>95423.62</v>
-      </c>
+      <c r="C69" s="25" t="n"/>
+      <c r="D69" s="16" t="n"/>
+      <c r="E69" s="25" t="n"/>
       <c r="F69" s="2" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>Total Gastos publicos y otros</t>
+      <c r="A70" s="13" t="inlineStr">
+        <is>
+          <t>Gastos Generales</t>
         </is>
       </c>
       <c r="B70" s="16" t="n"/>
-      <c r="C70" s="26" t="n">
-        <v>106634.26</v>
-      </c>
+      <c r="C70" s="25" t="n"/>
       <c r="D70" s="16" t="n"/>
-      <c r="E70" s="26" t="n">
-        <v>190130.56</v>
-      </c>
+      <c r="E70" s="25" t="n"/>
       <c r="F70" s="2" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Papeleria y utiles</t>
+        </is>
+      </c>
       <c r="B71" s="16" t="n"/>
-      <c r="C71" s="25" t="n"/>
+      <c r="C71" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="D71" s="16" t="n"/>
-      <c r="E71" s="25" t="n"/>
+      <c r="E71" s="25" t="n">
+        <v>10000</v>
+      </c>
       <c r="F71" s="2" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Licencia mensual-Zoom</t>
+        </is>
+      </c>
       <c r="B72" s="16" t="n"/>
-      <c r="C72" s="25" t="n"/>
+      <c r="C72" s="25" t="n">
+        <v>8787.18</v>
+      </c>
       <c r="D72" s="16" t="n"/>
-      <c r="E72" s="25" t="n"/>
+      <c r="E72" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="F72" s="2" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="13" t="inlineStr">
-        <is>
-          <t>Gastos Generales</t>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Materiales limpieza</t>
         </is>
       </c>
       <c r="B73" s="16" t="n"/>
-      <c r="C73" s="25" t="n"/>
-      <c r="D73" s="16" t="n"/>
-      <c r="E73" s="25" t="n"/>
+      <c r="C73" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="21" t="n"/>
+      <c r="E73" s="25" t="n">
+        <v>59000</v>
+      </c>
       <c r="F73" s="2" t="n"/>
     </row>
     <row r="74" ht="27.6" customHeight="1" thickBot="1">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Licencia mensual-Zoom</t>
-        </is>
-      </c>
-      <c r="B74" s="16" t="n"/>
-      <c r="C74" s="25" t="n">
-        <v>9114.77</v>
+          <t>Total Gastos Generales</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n"/>
+      <c r="C74" s="26" t="n">
+        <v>8787.18</v>
       </c>
       <c r="D74" s="16" t="n"/>
-      <c r="E74" s="25" t="n">
-        <v>10777.47</v>
+      <c r="E74" s="26" t="n">
+        <v>69000</v>
       </c>
       <c r="F74" s="2" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>Materiales limpieza</t>
-        </is>
-      </c>
-      <c r="B75" s="16" t="n"/>
-      <c r="C75" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" s="21" t="n"/>
-      <c r="E75" s="25" t="n">
-        <v>101830</v>
-      </c>
+      <c r="A75" s="2" t="n"/>
+      <c r="B75" s="2" t="n"/>
+      <c r="C75" s="25" t="n"/>
+      <c r="D75" s="2" t="n"/>
+      <c r="E75" s="25" t="n"/>
       <c r="F75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>Total Gastos Generales</t>
+      <c r="A76" s="13" t="inlineStr">
+        <is>
+          <t>Retiros Personales</t>
         </is>
       </c>
       <c r="B76" s="2" t="n"/>
-      <c r="C76" s="26" t="n">
-        <v>9114.77</v>
-      </c>
-      <c r="D76" s="16" t="n"/>
-      <c r="E76" s="26" t="n">
-        <v>112607.47</v>
-      </c>
+      <c r="C76" s="25" t="n"/>
+      <c r="D76" s="2" t="n"/>
+      <c r="E76" s="25" t="n"/>
       <c r="F76" s="2" t="n"/>
     </row>
     <row r="77">
@@ -1591,7 +1579,7 @@
     <row r="78" ht="15" customHeight="1" thickBot="1">
       <c r="A78" s="13" t="inlineStr">
         <is>
-          <t>Retiros Personales</t>
+          <t>Donaciones</t>
         </is>
       </c>
       <c r="B78" s="2" t="n"/>
@@ -1601,23 +1589,35 @@
       <c r="F78" s="2" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Donacion</t>
+        </is>
+      </c>
       <c r="B79" s="2" t="n"/>
-      <c r="C79" s="25" t="n"/>
+      <c r="C79" s="25" t="n">
+        <v>199668.57</v>
+      </c>
       <c r="D79" s="2" t="n"/>
-      <c r="E79" s="25" t="n"/>
+      <c r="E79" s="25" t="n">
+        <v>10000</v>
+      </c>
       <c r="F79" s="2" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="13" t="inlineStr">
-        <is>
-          <t>Donaciones</t>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Total Gasto de Donaciones</t>
         </is>
       </c>
       <c r="B80" s="2" t="n"/>
-      <c r="C80" s="25" t="n"/>
+      <c r="C80" s="26" t="n">
+        <v>199668.57</v>
+      </c>
       <c r="D80" s="2" t="n"/>
-      <c r="E80" s="25" t="n"/>
+      <c r="E80" s="26" t="n">
+        <v>10000</v>
+      </c>
       <c r="F80" s="2" t="n"/>
     </row>
     <row r="81">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="25" t="n">
-        <v>859755.3100000001</v>
+        <v>1038245.18</v>
       </c>
       <c r="D83" s="2" t="n"/>
       <c r="E83" s="25" t="n">
-        <v>2590750.26</v>
+        <v>15430.07</v>
       </c>
       <c r="F83" s="2" t="n"/>
     </row>
@@ -1664,11 +1664,11 @@
       </c>
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="25" t="n">
-        <v>6731.88</v>
+        <v>2329.23</v>
       </c>
       <c r="D84" s="5" t="n"/>
       <c r="E84" s="25" t="n">
-        <v>2591.24</v>
+        <v>86960.89999999999</v>
       </c>
       <c r="F84" s="2" t="n"/>
     </row>
@@ -1680,11 +1680,11 @@
       </c>
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="26" t="n">
-        <v>866487.1899999999</v>
+        <v>1040574.41</v>
       </c>
       <c r="D85" s="2" t="n"/>
       <c r="E85" s="26" t="n">
-        <v>2593341.5</v>
+        <v>102390.97</v>
       </c>
       <c r="F85" s="2" t="n"/>
     </row>
@@ -1719,12 +1719,12 @@
     <row r="89" ht="15" customHeight="1" thickBot="1">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>Libros</t>
+          <t>Otros gastos (ver detalle en cuenta)</t>
         </is>
       </c>
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="25" t="n">
-        <v>44600</v>
+        <v>12000</v>
       </c>
       <c r="D89" s="2" t="n"/>
       <c r="E89" s="25" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B90" s="2" t="n"/>
       <c r="C90" s="26" t="n">
-        <v>44600</v>
+        <v>12000</v>
       </c>
       <c r="D90" s="2" t="n"/>
       <c r="E90" s="26" t="n">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B92" s="2" t="n"/>
       <c r="C92" s="26" t="n">
-        <v>1850500.22</v>
+        <v>2344848.9</v>
       </c>
       <c r="D92" s="5" t="n"/>
       <c r="E92" s="26" t="n">
-        <v>3076079.53</v>
+        <v>379861.52</v>
       </c>
       <c r="F92" s="2" t="n"/>
     </row>
@@ -1788,11 +1788,11 @@
       </c>
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="25" t="n">
-        <v>-1059122.68</v>
+        <v>1774621.7</v>
       </c>
       <c r="D94" s="5" t="n"/>
       <c r="E94" s="25" t="n">
-        <v>-2208682.77</v>
+        <v>2110933.59</v>
       </c>
       <c r="F94" s="2" t="n"/>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="D97" s="2" t="n"/>
       <c r="E97" s="25" t="n">
-        <v>1060001.13</v>
+        <v>150000</v>
       </c>
       <c r="F97" s="2" t="n"/>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D98" s="2" t="n"/>
       <c r="E98" s="26" t="n">
-        <v>1060001.13</v>
+        <v>150000</v>
       </c>
       <c r="F98" s="2" t="n"/>
     </row>
@@ -1872,11 +1872,11 @@
       </c>
       <c r="B100" s="2" t="n"/>
       <c r="C100" s="25" t="n">
-        <v>-1059122.68</v>
+        <v>1774621.7</v>
       </c>
       <c r="D100" s="5" t="n"/>
       <c r="E100" s="25" t="n">
-        <v>-3268683.89</v>
+        <v>1960933.59</v>
       </c>
       <c r="F100" s="2" t="n"/>
     </row>
@@ -1919,7 +1919,7 @@
   <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F170"/>
+      <selection activeCell="A9" sqref="A9:E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.44140625" defaultRowHeight="14.4"/>
@@ -2008,7 +2008,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Ala</t>
+          <t>Ingresos</t>
         </is>
       </c>
       <c r="B7" s="24" t="n">
@@ -2051,11 +2051,11 @@
       </c>
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="9" t="n">
-        <v>5371628.42</v>
+        <v>8415433.85</v>
       </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="9" t="n">
-        <v>6818325.81</v>
+        <v>9377950.189999999</v>
       </c>
       <c r="F10" s="2" t="n"/>
     </row>
@@ -2083,11 +2083,11 @@
       </c>
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="14" t="n">
-        <v>1200003.26</v>
+        <v>1800003.26</v>
       </c>
       <c r="D12" s="5" t="n"/>
       <c r="E12" s="14" t="n">
-        <v>1670006.73</v>
+        <v>2600006.23</v>
       </c>
       <c r="F12" s="2" t="n"/>
     </row>
@@ -2099,11 +2099,11 @@
       </c>
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="9" t="n">
-        <v>6571631.68</v>
+        <v>10215437.11</v>
       </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="9" t="n">
-        <v>8488332.539999999</v>
+        <v>11977956.42</v>
       </c>
       <c r="F13" s="2" t="n"/>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="9" t="n">
-        <v>1638513.5</v>
+        <v>3854685.32</v>
       </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="9" t="n">
@@ -2151,11 +2151,11 @@
       </c>
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="9" t="n">
-        <v>443264.08</v>
+        <v>467764.08</v>
       </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="9" t="n">
-        <v>3298110.69</v>
+        <v>4651073.68</v>
       </c>
       <c r="F17" s="2" t="n"/>
     </row>
@@ -2166,12 +2166,12 @@
         </is>
       </c>
       <c r="B18" s="2" t="n"/>
-      <c r="C18" s="7" t="n">
-        <v>0</v>
+      <c r="C18" s="9" t="n">
+        <v>626127.2</v>
       </c>
       <c r="D18" s="2" t="n"/>
-      <c r="E18" s="7" t="n">
-        <v>0</v>
+      <c r="E18" s="9" t="n">
+        <v>945410.5</v>
       </c>
       <c r="F18" s="2" t="n"/>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="9" t="n">
-        <v>51750</v>
+        <v>128775</v>
       </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="7" t="n">
@@ -2199,11 +2199,11 @@
       </c>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="9" t="n">
-        <v>791104.28</v>
+        <v>1421104.28</v>
       </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="9" t="n">
-        <v>475002.95</v>
+        <v>762275.35</v>
       </c>
       <c r="F20" s="2" t="n"/>
     </row>
@@ -2215,11 +2215,11 @@
       </c>
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="9" t="n">
-        <v>161401.08</v>
+        <v>506401.08</v>
       </c>
       <c r="D21" s="2" t="n"/>
       <c r="E21" s="9" t="n">
-        <v>169000.13</v>
+        <v>236000.11</v>
       </c>
       <c r="F21" s="2" t="n"/>
     </row>
@@ -2234,8 +2234,8 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="n"/>
-      <c r="E22" s="20" t="n">
-        <v>0</v>
+      <c r="E22" s="14" t="n">
+        <v>48000</v>
       </c>
       <c r="F22" s="2" t="n"/>
     </row>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="9" t="n">
-        <v>3086032.94</v>
+        <v>7004856.96</v>
       </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="9" t="n">
-        <v>4176113.77</v>
+        <v>6876759.64</v>
       </c>
       <c r="F23" s="2" t="n"/>
     </row>
@@ -2291,11 +2291,11 @@
       </c>
       <c r="B27" s="2" t="n"/>
       <c r="C27" s="9" t="n">
-        <v>530782.72</v>
+        <v>1089773.84</v>
       </c>
       <c r="D27" s="2" t="n"/>
       <c r="E27" s="9" t="n">
-        <v>488536.82</v>
+        <v>747977.8199999999</v>
       </c>
       <c r="F27" s="2" t="n"/>
     </row>
@@ -2307,11 +2307,11 @@
       </c>
       <c r="B28" s="2" t="n"/>
       <c r="C28" s="9" t="n">
-        <v>126886.4</v>
+        <v>329425.56</v>
       </c>
       <c r="D28" s="2" t="n"/>
       <c r="E28" s="9" t="n">
-        <v>874525.3</v>
+        <v>1532591.79</v>
       </c>
       <c r="F28" s="2" t="n"/>
     </row>
@@ -2322,8 +2322,8 @@
         </is>
       </c>
       <c r="B29" s="2" t="n"/>
-      <c r="C29" s="7" t="n">
-        <v>0</v>
+      <c r="C29" s="9" t="n">
+        <v>3000</v>
       </c>
       <c r="D29" s="2" t="n"/>
       <c r="E29" s="7" t="n">
@@ -2371,11 +2371,11 @@
       </c>
       <c r="B32" s="2" t="n"/>
       <c r="C32" s="9" t="n">
-        <v>657669.12</v>
+        <v>1422199.39</v>
       </c>
       <c r="D32" s="2" t="n"/>
       <c r="E32" s="9" t="n">
-        <v>1363062.13</v>
+        <v>2280569.61</v>
       </c>
       <c r="F32" s="2" t="n"/>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B41" s="2" t="n"/>
       <c r="C41" s="9" t="n">
-        <v>1497460.85</v>
+        <v>1574223.26</v>
       </c>
       <c r="D41" s="2" t="n"/>
       <c r="E41" s="9" t="n">
@@ -2507,11 +2507,11 @@
       </c>
       <c r="B42" s="2" t="n"/>
       <c r="C42" s="14" t="n">
-        <v>1860.25</v>
+        <v>1603340.43</v>
       </c>
       <c r="D42" s="5" t="n"/>
       <c r="E42" s="14" t="n">
-        <v>98305.24000000001</v>
+        <v>675737.47</v>
       </c>
       <c r="F42" s="2" t="n"/>
     </row>
@@ -2523,11 +2523,11 @@
       </c>
       <c r="B43" s="2" t="n"/>
       <c r="C43" s="9" t="n">
-        <v>1499321.1</v>
+        <v>3177563.69</v>
       </c>
       <c r="D43" s="2" t="n"/>
       <c r="E43" s="9" t="n">
-        <v>5414004.91</v>
+        <v>5991437.14</v>
       </c>
       <c r="F43" s="2" t="n"/>
     </row>
@@ -2578,8 +2578,8 @@
         <v>58550</v>
       </c>
       <c r="D47" s="2" t="n"/>
-      <c r="E47" s="7" t="n">
-        <v>0</v>
+      <c r="E47" s="9" t="n">
+        <v>20005.98</v>
       </c>
       <c r="F47" s="2" t="n"/>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D48" s="2" t="n"/>
       <c r="E48" s="9" t="n">
-        <v>18000</v>
+        <v>54001.49</v>
       </c>
       <c r="F48" s="2" t="n"/>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B49" s="2" t="n"/>
       <c r="C49" s="9" t="n">
-        <v>103999.85</v>
+        <v>124999.85</v>
       </c>
       <c r="D49" s="2" t="n"/>
       <c r="E49" s="7" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="9" t="n">
-        <v>39000</v>
+        <v>65000</v>
       </c>
       <c r="D50" s="2" t="n"/>
       <c r="E50" s="9" t="n">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B56" s="2" t="n"/>
       <c r="C56" s="9" t="n">
-        <v>72000</v>
+        <v>80000</v>
       </c>
       <c r="D56" s="2" t="n"/>
       <c r="E56" s="7" t="n">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="B57" s="2" t="n"/>
       <c r="C57" s="14" t="n">
-        <v>20000</v>
+        <v>41000</v>
       </c>
       <c r="D57" s="5" t="n"/>
       <c r="E57" s="20" t="n">
@@ -2751,11 +2751,11 @@
       </c>
       <c r="B58" s="2" t="n"/>
       <c r="C58" s="9" t="n">
-        <v>425549.85</v>
+        <v>501549.85</v>
       </c>
       <c r="D58" s="2" t="n"/>
       <c r="E58" s="9" t="n">
-        <v>47999.99</v>
+        <v>104007.46</v>
       </c>
       <c r="F58" s="2" t="n"/>
     </row>
@@ -2775,11 +2775,11 @@
       </c>
       <c r="B60" s="2" t="n"/>
       <c r="C60" s="15" t="n">
-        <v>12240204.69</v>
+        <v>22321607.01</v>
       </c>
       <c r="D60" s="2" t="n"/>
       <c r="E60" s="15" t="n">
-        <v>19750616.89</v>
+        <v>27491833.83</v>
       </c>
       <c r="F60" s="2" t="n"/>
     </row>
@@ -2837,11 +2837,11 @@
       </c>
       <c r="B65" s="2" t="n"/>
       <c r="C65" s="9" t="n">
-        <v>2665933.5</v>
+        <v>3327833.5</v>
       </c>
       <c r="D65" s="2" t="n"/>
       <c r="E65" s="9" t="n">
-        <v>908000</v>
+        <v>936000</v>
       </c>
       <c r="F65" s="2" t="n"/>
     </row>
@@ -2853,11 +2853,11 @@
       </c>
       <c r="B66" s="2" t="n"/>
       <c r="C66" s="9" t="n">
-        <v>40000</v>
+        <v>621000</v>
       </c>
       <c r="D66" s="2" t="n"/>
       <c r="E66" s="9" t="n">
-        <v>373000</v>
+        <v>539000.14</v>
       </c>
       <c r="F66" s="2" t="n"/>
     </row>
@@ -2868,8 +2868,8 @@
         </is>
       </c>
       <c r="B67" s="2" t="n"/>
-      <c r="C67" s="7" t="n">
-        <v>0</v>
+      <c r="C67" s="9" t="n">
+        <v>50000</v>
       </c>
       <c r="D67" s="2" t="n"/>
       <c r="E67" s="7" t="n">
@@ -2884,12 +2884,12 @@
         </is>
       </c>
       <c r="B68" s="2" t="n"/>
-      <c r="C68" s="20" t="n">
-        <v>0</v>
+      <c r="C68" s="14" t="n">
+        <v>80000</v>
       </c>
       <c r="D68" s="2" t="n"/>
       <c r="E68" s="14" t="n">
-        <v>36950</v>
+        <v>71950</v>
       </c>
       <c r="F68" s="2" t="n"/>
     </row>
@@ -2901,11 +2901,11 @@
       </c>
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="9" t="n">
-        <v>2705933.5</v>
+        <v>4078833.5</v>
       </c>
       <c r="D69" s="2" t="n"/>
       <c r="E69" s="9" t="n">
-        <v>1317950</v>
+        <v>1546950.14</v>
       </c>
       <c r="F69" s="2" t="n"/>
     </row>
@@ -2925,11 +2925,11 @@
       </c>
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="9" t="n">
-        <v>1114805.25</v>
+        <v>1775344.91</v>
       </c>
       <c r="D71" s="2" t="n"/>
       <c r="E71" s="9" t="n">
-        <v>61115</v>
+        <v>319214.5</v>
       </c>
       <c r="F71" s="2" t="n"/>
     </row>
@@ -2941,11 +2941,11 @@
       </c>
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="9" t="n">
-        <v>154900</v>
+        <v>291045</v>
       </c>
       <c r="D72" s="2" t="n"/>
       <c r="E72" s="9" t="n">
-        <v>105931.59</v>
+        <v>129707.02</v>
       </c>
       <c r="F72" s="2" t="n"/>
     </row>
@@ -2957,11 +2957,11 @@
       </c>
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="14" t="n">
-        <v>200022.28</v>
+        <v>150252.65</v>
       </c>
       <c r="D73" s="2" t="n"/>
-      <c r="E73" s="20" t="n">
-        <v>0</v>
+      <c r="E73" s="14" t="n">
+        <v>35000</v>
       </c>
       <c r="F73" s="2" t="n"/>
     </row>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="9" t="n">
-        <v>1469727.52</v>
+        <v>2216642.56</v>
       </c>
       <c r="D74" s="2" t="n"/>
       <c r="E74" s="9" t="n">
-        <v>167046.59</v>
+        <v>483921.52</v>
       </c>
       <c r="F74" s="2" t="n"/>
     </row>
@@ -2997,11 +2997,11 @@
       </c>
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="9" t="n">
-        <v>495550</v>
+        <v>565550</v>
       </c>
       <c r="D76" s="2" t="n"/>
-      <c r="E76" s="7" t="n">
-        <v>0</v>
+      <c r="E76" s="9" t="n">
+        <v>98122.2</v>
       </c>
       <c r="F76" s="2" t="n"/>
     </row>
@@ -3021,11 +3021,11 @@
       </c>
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="9" t="n">
-        <v>4175661.02</v>
+        <v>6295476.06</v>
       </c>
       <c r="D78" s="2" t="n"/>
       <c r="E78" s="9" t="n">
-        <v>1484996.59</v>
+        <v>2128993.85</v>
       </c>
       <c r="F78" s="2" t="n"/>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="9" t="n">
-        <v>892647.6800000001</v>
+        <v>1861136.68</v>
       </c>
       <c r="D82" s="2" t="n"/>
       <c r="E82" s="7" t="n">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="9" t="n">
-        <v>127875</v>
+        <v>267277</v>
       </c>
       <c r="D83" s="2" t="n"/>
       <c r="E83" s="7" t="n">
@@ -3112,8 +3112,8 @@
         </is>
       </c>
       <c r="B85" s="2" t="n"/>
-      <c r="C85" s="7" t="n">
-        <v>0</v>
+      <c r="C85" s="9" t="n">
+        <v>749930.35</v>
       </c>
       <c r="D85" s="2" t="n"/>
       <c r="E85" s="7" t="n">
@@ -3132,8 +3132,8 @@
         <v>0</v>
       </c>
       <c r="D86" s="2" t="n"/>
-      <c r="E86" s="7" t="n">
-        <v>0</v>
+      <c r="E86" s="9" t="n">
+        <v>435659</v>
       </c>
       <c r="F86" s="2" t="n"/>
     </row>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="9" t="n">
-        <v>16000</v>
+        <v>77500</v>
       </c>
       <c r="D87" s="2" t="n"/>
       <c r="E87" s="7" t="n">
@@ -3177,11 +3177,11 @@
       </c>
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="9" t="n">
-        <v>1036522.68</v>
+        <v>2955844.03</v>
       </c>
       <c r="D89" s="2" t="n"/>
-      <c r="E89" s="7" t="n">
-        <v>0</v>
+      <c r="E89" s="9" t="n">
+        <v>435659</v>
       </c>
       <c r="F89" s="2" t="n"/>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B90" s="2" t="n"/>
       <c r="C90" s="9" t="n">
-        <v>719614</v>
+        <v>745864</v>
       </c>
       <c r="D90" s="2" t="n"/>
       <c r="E90" s="7" t="n">
@@ -3209,11 +3209,11 @@
       </c>
       <c r="B91" s="2" t="n"/>
       <c r="C91" s="9" t="n">
-        <v>277477</v>
+        <v>556840</v>
       </c>
       <c r="D91" s="2" t="n"/>
       <c r="E91" s="9" t="n">
-        <v>224753</v>
+        <v>302085</v>
       </c>
       <c r="F91" s="2" t="n"/>
     </row>
@@ -3225,11 +3225,11 @@
       </c>
       <c r="B92" s="2" t="n"/>
       <c r="C92" s="9" t="n">
-        <v>178241</v>
+        <v>299471.35</v>
       </c>
       <c r="D92" s="2" t="n"/>
       <c r="E92" s="9" t="n">
-        <v>160900</v>
+        <v>240172</v>
       </c>
       <c r="F92" s="2" t="n"/>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="9" t="n">
-        <v>143325.1</v>
+        <v>157105.1</v>
       </c>
       <c r="D93" s="2" t="n"/>
       <c r="E93" s="7" t="n">
@@ -3260,8 +3260,8 @@
         <v>0</v>
       </c>
       <c r="D94" s="2" t="n"/>
-      <c r="E94" s="7" t="n">
-        <v>0</v>
+      <c r="E94" s="9" t="n">
+        <v>194916</v>
       </c>
       <c r="F94" s="2" t="n"/>
     </row>
@@ -3273,11 +3273,11 @@
       </c>
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="9" t="n">
-        <v>145520.48</v>
+        <v>283099.37</v>
       </c>
       <c r="D95" s="2" t="n"/>
       <c r="E95" s="9" t="n">
-        <v>39130.87</v>
+        <v>109115.08</v>
       </c>
       <c r="F95" s="2" t="n"/>
     </row>
@@ -3304,12 +3304,12 @@
         </is>
       </c>
       <c r="B97" s="2" t="n"/>
-      <c r="C97" s="20" t="n">
-        <v>0</v>
+      <c r="C97" s="14" t="n">
+        <v>58906</v>
       </c>
       <c r="D97" s="5" t="n"/>
-      <c r="E97" s="20" t="n">
-        <v>0</v>
+      <c r="E97" s="14" t="n">
+        <v>120792</v>
       </c>
       <c r="F97" s="2" t="n"/>
     </row>
@@ -3321,11 +3321,11 @@
       </c>
       <c r="B98" s="2" t="n"/>
       <c r="C98" s="9" t="n">
-        <v>2500700.26</v>
+        <v>5057129.85</v>
       </c>
       <c r="D98" s="2" t="n"/>
       <c r="E98" s="9" t="n">
-        <v>424783.87</v>
+        <v>1402739.08</v>
       </c>
       <c r="F98" s="2" t="n"/>
     </row>
@@ -3357,11 +3357,11 @@
       </c>
       <c r="B101" s="16" t="n"/>
       <c r="C101" s="17" t="n">
-        <v>494260.32</v>
+        <v>789610.3199999999</v>
       </c>
       <c r="D101" s="16" t="n"/>
       <c r="E101" s="17" t="n">
-        <v>586240</v>
+        <v>895550</v>
       </c>
       <c r="F101" s="2" t="n"/>
     </row>
@@ -3373,11 +3373,11 @@
       </c>
       <c r="B102" s="16" t="n"/>
       <c r="C102" s="17" t="n">
-        <v>376931.99</v>
+        <v>566894.79</v>
       </c>
       <c r="D102" s="16" t="n"/>
       <c r="E102" s="17" t="n">
-        <v>174808.44</v>
+        <v>261964.01</v>
       </c>
       <c r="F102" s="2" t="n"/>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="D103" s="16" t="n"/>
       <c r="E103" s="17" t="n">
-        <v>3235</v>
+        <v>6470</v>
       </c>
       <c r="F103" s="2" t="n"/>
     </row>
@@ -3436,12 +3436,12 @@
         </is>
       </c>
       <c r="B106" s="16" t="n"/>
-      <c r="C106" s="22" t="n">
-        <v>0</v>
+      <c r="C106" s="17" t="n">
+        <v>633076.16</v>
       </c>
       <c r="D106" s="16" t="n"/>
-      <c r="E106" s="22" t="n">
-        <v>0</v>
+      <c r="E106" s="17" t="n">
+        <v>734801.59</v>
       </c>
       <c r="F106" s="2" t="n"/>
     </row>
@@ -3452,12 +3452,12 @@
         </is>
       </c>
       <c r="B107" s="16" t="n"/>
-      <c r="C107" s="22" t="n">
-        <v>0</v>
+      <c r="C107" s="17" t="n">
+        <v>60220</v>
       </c>
       <c r="D107" s="16" t="n"/>
-      <c r="E107" s="22" t="n">
-        <v>0</v>
+      <c r="E107" s="17" t="n">
+        <v>65111.77</v>
       </c>
       <c r="F107" s="2" t="n"/>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="B108" s="16" t="n"/>
       <c r="C108" s="18" t="n">
-        <v>291986</v>
+        <v>485132.36</v>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="18" t="n">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="B109" s="16" t="n"/>
       <c r="C109" s="17" t="n">
-        <v>1166603.31</v>
+        <v>2538358.63</v>
       </c>
       <c r="D109" s="16" t="n"/>
       <c r="E109" s="17" t="n">
-        <v>1132220.7</v>
+        <v>2331834.63</v>
       </c>
       <c r="F109" s="2" t="n"/>
     </row>
@@ -3529,11 +3529,11 @@
       </c>
       <c r="B113" s="16" t="n"/>
       <c r="C113" s="17" t="n">
-        <v>255390.56</v>
+        <v>309390.56</v>
       </c>
       <c r="D113" s="16" t="n"/>
       <c r="E113" s="17" t="n">
-        <v>41285</v>
+        <v>116482.65</v>
       </c>
       <c r="F113" s="2" t="n"/>
     </row>
@@ -3561,11 +3561,11 @@
       </c>
       <c r="B115" s="16" t="n"/>
       <c r="C115" s="17" t="n">
-        <v>83641.14</v>
+        <v>119387.31</v>
       </c>
       <c r="D115" s="16" t="n"/>
       <c r="E115" s="17" t="n">
-        <v>89337.92</v>
+        <v>120953.17</v>
       </c>
       <c r="F115" s="2" t="n"/>
     </row>
@@ -3625,11 +3625,11 @@
       </c>
       <c r="B119" s="16" t="n"/>
       <c r="C119" s="18" t="n">
-        <v>409056.67</v>
+        <v>512504.67</v>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="18" t="n">
-        <v>365232.3</v>
+        <v>521017.3</v>
       </c>
       <c r="F119" s="2" t="n"/>
     </row>
@@ -3641,11 +3641,11 @@
       </c>
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="17" t="n">
-        <v>976543.38</v>
+        <v>1169737.55</v>
       </c>
       <c r="D120" s="16" t="n"/>
       <c r="E120" s="17" t="n">
-        <v>515313.32</v>
+        <v>777911.22</v>
       </c>
       <c r="F120" s="2" t="n"/>
     </row>
@@ -3696,8 +3696,8 @@
         <v>0</v>
       </c>
       <c r="D124" s="16" t="n"/>
-      <c r="E124" s="22" t="n">
-        <v>0</v>
+      <c r="E124" s="17" t="n">
+        <v>42448</v>
       </c>
       <c r="F124" s="2" t="n"/>
     </row>
@@ -3728,8 +3728,8 @@
         <v>0</v>
       </c>
       <c r="D126" s="2" t="n"/>
-      <c r="E126" s="7" t="n">
-        <v>0</v>
+      <c r="E126" s="9" t="n">
+        <v>42448</v>
       </c>
       <c r="F126" s="2" t="n"/>
     </row>
@@ -3760,12 +3760,12 @@
         </is>
       </c>
       <c r="B129" s="2" t="n"/>
-      <c r="C129" s="7" t="n">
-        <v>0</v>
+      <c r="C129" s="9" t="n">
+        <v>260668.57</v>
       </c>
       <c r="D129" s="2" t="n"/>
-      <c r="E129" s="7" t="n">
-        <v>0</v>
+      <c r="E129" s="9" t="n">
+        <v>10000</v>
       </c>
       <c r="F129" s="2" t="n"/>
     </row>
@@ -3792,8 +3792,8 @@
         </is>
       </c>
       <c r="B131" s="2" t="n"/>
-      <c r="C131" s="20" t="n">
-        <v>0</v>
+      <c r="C131" s="14" t="n">
+        <v>126000</v>
       </c>
       <c r="D131" s="5" t="n"/>
       <c r="E131" s="20" t="n">
@@ -3809,11 +3809,11 @@
       </c>
       <c r="B132" s="2" t="n"/>
       <c r="C132" s="9" t="n">
-        <v>1391290</v>
+        <v>1777958.57</v>
       </c>
       <c r="D132" s="2" t="n"/>
       <c r="E132" s="9" t="n">
-        <v>116290</v>
+        <v>126290</v>
       </c>
       <c r="F132" s="2" t="n"/>
     </row>
@@ -3845,11 +3845,11 @@
       </c>
       <c r="B135" s="2" t="n"/>
       <c r="C135" s="9" t="n">
-        <v>8594314.01</v>
+        <v>10348101.24</v>
       </c>
       <c r="D135" s="2" t="n"/>
       <c r="E135" s="9" t="n">
-        <v>5088231.96</v>
+        <v>11285493.62</v>
       </c>
       <c r="F135" s="2" t="n"/>
     </row>
@@ -3861,11 +3861,11 @@
       </c>
       <c r="B136" s="2" t="n"/>
       <c r="C136" s="14" t="n">
-        <v>66151.39999999999</v>
+        <v>105050.37</v>
       </c>
       <c r="D136" s="5" t="n"/>
       <c r="E136" s="14" t="n">
-        <v>37654.16</v>
+        <v>135628.34</v>
       </c>
       <c r="F136" s="2" t="n"/>
     </row>
@@ -3877,11 +3877,11 @@
       </c>
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="9" t="n">
-        <v>8660465.41</v>
+        <v>10453151.61</v>
       </c>
       <c r="D137" s="2" t="n"/>
       <c r="E137" s="9" t="n">
-        <v>5125886.12</v>
+        <v>11421121.97</v>
       </c>
       <c r="F137" s="2" t="n"/>
     </row>
@@ -3940,8 +3940,8 @@
         <v>0</v>
       </c>
       <c r="D142" s="2" t="n"/>
-      <c r="E142" s="7" t="n">
-        <v>0</v>
+      <c r="E142" s="9" t="n">
+        <v>41036</v>
       </c>
       <c r="F142" s="2" t="n"/>
     </row>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="9" t="n">
-        <v>44600</v>
+        <v>68160</v>
       </c>
       <c r="D145" s="2" t="n"/>
       <c r="E145" s="9" t="n">
@@ -4064,12 +4064,12 @@
         </is>
       </c>
       <c r="B150" s="2" t="n"/>
-      <c r="C150" s="7" t="n">
-        <v>0</v>
+      <c r="C150" s="9" t="n">
+        <v>12000</v>
       </c>
       <c r="D150" s="2" t="n"/>
       <c r="E150" s="9" t="n">
-        <v>321404</v>
+        <v>373924.8</v>
       </c>
       <c r="F150" s="2" t="n"/>
     </row>
@@ -4113,11 +4113,11 @@
       </c>
       <c r="B153" s="2" t="n"/>
       <c r="C153" s="9" t="n">
-        <v>291885</v>
+        <v>327445</v>
       </c>
       <c r="D153" s="2" t="n"/>
       <c r="E153" s="9" t="n">
-        <v>515928.41</v>
+        <v>609485.21</v>
       </c>
       <c r="F153" s="2" t="n"/>
     </row>
@@ -4137,11 +4137,11 @@
       </c>
       <c r="B155" s="2" t="n"/>
       <c r="C155" s="19" t="n">
-        <v>19163148.38</v>
+        <v>27619257.26</v>
       </c>
       <c r="D155" s="5" t="n"/>
       <c r="E155" s="19" t="n">
-        <v>9315419.01</v>
+        <v>18840823.97</v>
       </c>
       <c r="F155" s="2" t="n"/>
     </row>
@@ -4161,11 +4161,11 @@
       </c>
       <c r="B157" s="2" t="n"/>
       <c r="C157" s="19" t="n">
-        <v>-6922943.69</v>
+        <v>-5297650.25</v>
       </c>
       <c r="D157" s="5" t="n"/>
       <c r="E157" s="19" t="n">
-        <v>10435197.88</v>
+        <v>8651009.859999999</v>
       </c>
       <c r="F157" s="2" t="n"/>
     </row>
@@ -4202,12 +4202,12 @@
         </is>
       </c>
       <c r="B160" s="2" t="n"/>
-      <c r="C160" s="7" t="n">
-        <v>0</v>
+      <c r="C160" s="9" t="n">
+        <v>425000</v>
       </c>
       <c r="D160" s="2" t="n"/>
       <c r="E160" s="9" t="n">
-        <v>3433466.13</v>
+        <v>5344619.04</v>
       </c>
       <c r="F160" s="2" t="n"/>
     </row>
@@ -4314,12 +4314,12 @@
         </is>
       </c>
       <c r="B167" s="2" t="n"/>
-      <c r="C167" s="20" t="n">
-        <v>0</v>
+      <c r="C167" s="14" t="n">
+        <v>396277.5</v>
       </c>
       <c r="D167" s="5" t="n"/>
       <c r="E167" s="14" t="n">
-        <v>137036</v>
+        <v>179976</v>
       </c>
       <c r="F167" s="2" t="n"/>
     </row>
@@ -4331,11 +4331,11 @@
       </c>
       <c r="B168" s="2" t="n"/>
       <c r="C168" s="9" t="n">
-        <v>667336.89</v>
+        <v>1488614.39</v>
       </c>
       <c r="D168" s="2" t="n"/>
       <c r="E168" s="9" t="n">
-        <v>4497869.44</v>
+        <v>6451962.35</v>
       </c>
       <c r="F168" s="2" t="n"/>
     </row>
@@ -4355,11 +4355,11 @@
       </c>
       <c r="B170" s="2" t="n"/>
       <c r="C170" s="19" t="n">
-        <v>-7590280.58</v>
+        <v>-6786264.64</v>
       </c>
       <c r="D170" s="5" t="n"/>
       <c r="E170" s="19" t="n">
-        <v>5937328.44</v>
+        <v>2199047.51</v>
       </c>
       <c r="F170" s="2" t="n"/>
     </row>

--- a/Copypegaedited.xlsx
+++ b/Copypegaedited.xlsx
@@ -546,10 +546,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E171"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -699,11 +699,11 @@
       </c>
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="25" t="n">
-        <v>1234198.7</v>
+        <v>832105.87</v>
       </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="25" t="n">
-        <v>809420.88</v>
+        <v>1628832.28</v>
       </c>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="9" t="n"/>
@@ -720,7 +720,7 @@
       </c>
       <c r="D12" s="5" t="n"/>
       <c r="E12" s="25" t="n">
-        <v>389999.5</v>
+        <v>150002.06</v>
       </c>
       <c r="F12" s="2" t="n"/>
     </row>
@@ -732,11 +732,11 @@
       </c>
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="26" t="n">
-        <v>1384198.7</v>
+        <v>982105.87</v>
       </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="26" t="n">
-        <v>1199420.38</v>
+        <v>1778834.34</v>
       </c>
       <c r="F13" s="2" t="n"/>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="25" t="n">
-        <v>473924.96</v>
+        <v>317675.11</v>
       </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="25" t="n">
@@ -788,88 +788,80 @@
       </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="25" t="n">
-        <v>547800.34</v>
+        <v>70792.48</v>
       </c>
       <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Ingreso seshines - Jakata</t>
+          <t>Ingreso seshines - Ventas Abarrotes post seshin</t>
         </is>
       </c>
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="25" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="25" t="n">
-        <v>118864</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Ingreso seshines - Ventas Abarrotes post seshin</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="25" t="n">
-        <v>73075</v>
+        <v>379999.97</v>
       </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="25" t="n">
-        <v>0</v>
+        <v>167012.82</v>
       </c>
       <c r="F19" s="2" t="n"/>
     </row>
     <row r="20" ht="27" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Dia de zazen</t>
         </is>
       </c>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="25" t="n">
-        <v>210000</v>
+        <v>63948.21</v>
       </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="25" t="n">
-        <v>47278.16</v>
+        <v>39997.21</v>
       </c>
       <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Dia de zazen</t>
+          <t>Total ingresos actividades</t>
         </is>
       </c>
       <c r="B21" s="2" t="n"/>
-      <c r="C21" s="25" t="n">
-        <v>4000</v>
+      <c r="C21" s="26" t="n">
+        <v>791623.29</v>
       </c>
       <c r="D21" s="2" t="n"/>
-      <c r="E21" s="25" t="n">
-        <v>0</v>
+      <c r="E21" s="26" t="n">
+        <v>277802.51</v>
       </c>
       <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Total ingresos actividades</t>
-        </is>
-      </c>
+      <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
-      <c r="C22" s="26" t="n">
-        <v>820999.96</v>
-      </c>
+      <c r="C22" s="25" t="n"/>
       <c r="D22" s="2" t="n"/>
-      <c r="E22" s="26" t="n">
-        <v>713942.5</v>
-      </c>
+      <c r="E22" s="25" t="n"/>
       <c r="F22" s="2" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1" thickBot="1">
@@ -881,7 +873,11 @@
       <c r="F23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
+      <c r="A24" s="13" t="inlineStr">
+        <is>
+          <t>Donaciones</t>
+        </is>
+      </c>
       <c r="B24" s="2" t="n"/>
       <c r="C24" s="25" t="n"/>
       <c r="D24" s="2" t="n"/>
@@ -889,63 +885,63 @@
       <c r="F24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="inlineStr">
-        <is>
-          <t>Donaciones</t>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Donacion</t>
         </is>
       </c>
       <c r="B25" s="2" t="n"/>
-      <c r="C25" s="25" t="n"/>
+      <c r="C25" s="25" t="n">
+        <v>34783.65</v>
+      </c>
       <c r="D25" s="2" t="n"/>
-      <c r="E25" s="25" t="n"/>
+      <c r="E25" s="25" t="n">
+        <v>41468</v>
+      </c>
       <c r="F25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Donacion</t>
+          <t>Donacion de ceremonias</t>
         </is>
       </c>
       <c r="B26" s="2" t="n"/>
       <c r="C26" s="25" t="n">
-        <v>314006.12</v>
+        <v>40000</v>
       </c>
       <c r="D26" s="2" t="n"/>
       <c r="E26" s="25" t="n">
-        <v>0</v>
+        <v>36886.4</v>
       </c>
       <c r="F26" s="2" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="2" t="n"/>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="25" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="25" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Total Donaciones</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="26" t="n">
-        <v>314006.12</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n"/>
       <c r="B28" s="2" t="n"/>
-      <c r="C28" s="25" t="n"/>
+      <c r="C28" s="26" t="n">
+        <v>74783.64999999999</v>
+      </c>
       <c r="D28" s="2" t="n"/>
-      <c r="E28" s="25" t="n"/>
+      <c r="E28" s="26" t="n">
+        <v>78354.39999999999</v>
+      </c>
       <c r="F28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="inlineStr">
-        <is>
-          <t>Retiros Personales</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
       <c r="B29" s="2" t="n"/>
       <c r="C29" s="25" t="n"/>
       <c r="D29" s="2" t="n"/>
@@ -953,7 +949,11 @@
       <c r="F29" s="2" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
+      <c r="A30" s="13" t="inlineStr">
+        <is>
+          <t>Retiros Personales</t>
+        </is>
+      </c>
       <c r="B30" s="2" t="n"/>
       <c r="C30" s="25" t="n"/>
       <c r="D30" s="2" t="n"/>
@@ -961,71 +961,71 @@
       <c r="F30" s="2" t="n"/>
     </row>
     <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="13" t="inlineStr">
-        <is>
-          <t>Ingresos Financieros</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
       <c r="B31" s="2" t="n"/>
       <c r="C31" s="25" t="n"/>
       <c r="D31" s="2" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="2" t="n"/>
     </row>
-    <row r="32" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Interes Ganados</t>
+    <row r="32">
+      <c r="A32" s="13" t="inlineStr">
+        <is>
+          <t>Ingresos Financieros</t>
         </is>
       </c>
       <c r="B32" s="2" t="n"/>
-      <c r="C32" s="25" t="n">
-        <v>1600265.83</v>
-      </c>
-      <c r="D32" s="5" t="n"/>
-      <c r="E32" s="25" t="n">
-        <v>577432.23</v>
-      </c>
+      <c r="C32" s="25" t="n"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="25" t="n"/>
       <c r="F32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
+          <t>Interes Ganados</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="25" t="n">
+        <v>302</v>
+      </c>
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
           <t>Total Ingresos Financieros</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="26" t="n">
-        <v>1600265.83</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="26" t="n">
-        <v>577432.23</v>
-      </c>
-      <c r="F33" s="2" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n"/>
       <c r="B34" s="2" t="n"/>
-      <c r="C34" s="25" t="n"/>
+      <c r="C34" s="26" t="n">
+        <v>302</v>
+      </c>
       <c r="D34" s="2" t="n"/>
-      <c r="E34" s="25" t="n"/>
+      <c r="E34" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="F34" s="2" t="n"/>
     </row>
-    <row r="35">
-      <c r="A35" s="13" t="inlineStr">
-        <is>
-          <t>Ingresos Miscelaneos</t>
-        </is>
-      </c>
+    <row r="35" ht="27" customHeight="1">
+      <c r="A35" s="2" t="n"/>
       <c r="B35" s="2" t="n"/>
       <c r="C35" s="25" t="n"/>
       <c r="D35" s="2" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="2" t="n"/>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n"/>
+    <row r="36" ht="15" customHeight="1" thickBot="1">
+      <c r="A36" s="13" t="inlineStr">
+        <is>
+          <t>Ingresos Miscelaneos</t>
+        </is>
+      </c>
       <c r="B36" s="2" t="n"/>
       <c r="C36" s="25" t="n"/>
       <c r="D36" s="2" t="n"/>
@@ -1035,200 +1035,208 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
+          <t>Libros</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="25" t="n">
+        <v>21000</v>
+      </c>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Total Ingresos Miscelaneos</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="26" t="n">
+        <v>21000</v>
+      </c>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="26" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F38" s="24" t="inlineStr">
+        <is>
+          <t>Comentarios</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n"/>
+      <c r="B39" s="2" t="n"/>
+      <c r="C39" s="25" t="n"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="25" t="n"/>
+      <c r="F39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
           <t>Total Ingresos</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n"/>
-      <c r="C37" s="26" t="n">
-        <v>4119470.61</v>
-      </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="26" t="n">
-        <v>2490795.11</v>
-      </c>
-      <c r="F37" s="2" t="n"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="25" t="n"/>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="25" t="n"/>
-      <c r="F38" s="2" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>Gastos</t>
-        </is>
-      </c>
-      <c r="B39" s="24" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C39" s="25" t="n"/>
-      <c r="D39" s="24" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E39" s="25" t="n"/>
-      <c r="F39" s="24" t="inlineStr">
-        <is>
-          <t>Comentarios</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n"/>
       <c r="B40" s="2" t="n"/>
-      <c r="C40" s="25" t="n"/>
+      <c r="C40" s="26" t="n">
+        <v>1869814.81</v>
+      </c>
       <c r="D40" s="2" t="n"/>
-      <c r="E40" s="25" t="n"/>
+      <c r="E40" s="26" t="n">
+        <v>2146991.25</v>
+      </c>
       <c r="F40" s="2" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="inlineStr">
-        <is>
-          <t>Mantenimiento</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
       <c r="B41" s="2" t="n"/>
       <c r="C41" s="25" t="n"/>
       <c r="D41" s="2" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="2" t="n"/>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Mantenimiento de edificio (Mano de Obra)</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n"/>
-      <c r="C42" s="25" t="n">
-        <v>100000</v>
-      </c>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="25" t="n">
-        <v>8000</v>
-      </c>
+    <row r="42" ht="15" customHeight="1" thickBot="1">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Gastos</t>
+        </is>
+      </c>
+      <c r="B42" s="24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C42" s="25" t="n"/>
+      <c r="D42" s="24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E42" s="25" t="n"/>
       <c r="F42" s="2" t="n"/>
     </row>
-    <row r="43" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Mantenimiento de jardines (mano de obra)</t>
-        </is>
-      </c>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
       <c r="B43" s="2" t="n"/>
-      <c r="C43" s="25" t="n">
-        <v>55000</v>
-      </c>
+      <c r="C43" s="25" t="n"/>
       <c r="D43" s="2" t="n"/>
-      <c r="E43" s="25" t="n">
-        <v>16000</v>
-      </c>
+      <c r="E43" s="25" t="n"/>
       <c r="F43" s="2" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Servicios de mantenimiento de computadora y tecnologia general (Mano de obra)</t>
+      <c r="A44" s="13" t="inlineStr">
+        <is>
+          <t>Mantenimiento</t>
         </is>
       </c>
       <c r="B44" s="2" t="n"/>
-      <c r="C44" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="C44" s="25" t="n"/>
       <c r="D44" s="2" t="n"/>
-      <c r="E44" s="25" t="n">
-        <v>35000</v>
-      </c>
+      <c r="E44" s="25" t="n"/>
       <c r="F44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
+          <t>Mantenimiento de jardines (mano de obra)</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="25" t="n">
+        <v>46000</v>
+      </c>
+      <c r="F45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Servicios de mantenimiento de computadora y tecnologia general (Mano de obra)</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="25" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F46" s="2" t="n"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" thickBot="1">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
           <t>Subtotal Mantenimiento Mano de obra</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n"/>
-      <c r="C45" s="26" t="n">
-        <v>155000</v>
-      </c>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="26" t="n">
-        <v>59000</v>
-      </c>
-      <c r="F45" s="2" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
-      <c r="C46" s="25" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="25" t="n"/>
-      <c r="F46" s="2" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="B47" s="2" t="n"/>
+      <c r="C47" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="26" t="n">
+        <v>76000</v>
+      </c>
+      <c r="F47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
+      <c r="C48" s="25" t="n"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="25" t="n"/>
+      <c r="F48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>Mantenimiento de edificio (Materiales)</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n"/>
-      <c r="C47" s="25" t="n">
-        <v>29600</v>
-      </c>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="25" t="n">
-        <v>675</v>
-      </c>
-      <c r="F47" s="2" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Subtotal Mantenimiento Mano de obra</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="n"/>
-      <c r="C48" s="26" t="n">
-        <v>29600</v>
-      </c>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="26" t="n">
-        <v>675</v>
-      </c>
-      <c r="F48" s="2" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n"/>
       <c r="B49" s="2" t="n"/>
-      <c r="C49" s="25" t="n"/>
+      <c r="C49" s="25" t="n">
+        <v>28340</v>
+      </c>
       <c r="D49" s="2" t="n"/>
-      <c r="E49" s="25" t="n"/>
+      <c r="E49" s="25" t="n">
+        <v>198704.25</v>
+      </c>
       <c r="F49" s="2" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n"/>
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Mantenimiento de computadora y tecnologia - Materiales</t>
+        </is>
+      </c>
       <c r="B50" s="2" t="n"/>
-      <c r="C50" s="25" t="n"/>
-      <c r="D50" s="5" t="n"/>
-      <c r="E50" s="25" t="n"/>
+      <c r="C50" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="25" t="n">
+        <v>72497.83</v>
+      </c>
       <c r="F50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Total Mantenimiento</t>
+          <t>Subtotal Mantenimiento Mano de obra</t>
         </is>
       </c>
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="26" t="n">
-        <v>184600</v>
+        <v>28340</v>
       </c>
       <c r="D51" s="2" t="n"/>
       <c r="E51" s="26" t="n">
-        <v>59675</v>
+        <v>271202.07</v>
       </c>
       <c r="F51" s="2" t="n"/>
     </row>
@@ -1244,79 +1252,63 @@
       <c r="A53" s="2" t="n"/>
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="25" t="n"/>
-      <c r="D53" s="2" t="n"/>
+      <c r="D53" s="5" t="n"/>
       <c r="E53" s="25" t="n"/>
       <c r="F53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Total Mantenimiento</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n"/>
+      <c r="C54" s="26" t="n">
+        <v>28340</v>
+      </c>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="26" t="n">
+        <v>347202.07</v>
+      </c>
+      <c r="F54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
+      <c r="C55" s="25" t="n"/>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="25" t="n"/>
+      <c r="F55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
+      <c r="C56" s="25" t="n"/>
+      <c r="D56" s="2" t="n"/>
+      <c r="E56" s="25" t="n"/>
+      <c r="F56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="13" t="inlineStr">
         <is>
           <t>Gastos actividades</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n"/>
-      <c r="C54" s="25" t="n"/>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="25" t="n"/>
-      <c r="F54" s="2" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Gasto seshin - Alimentacion</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="n"/>
-      <c r="C55" s="25" t="n">
-        <v>406020</v>
-      </c>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Gasto seshin - Tiquete Roshi</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="n"/>
-      <c r="C56" s="25" t="n">
-        <v>342678.6</v>
-      </c>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Subtotal Seshines</t>
-        </is>
-      </c>
       <c r="B57" s="2" t="n"/>
-      <c r="C57" s="26" t="n">
-        <v>748698.6</v>
-      </c>
+      <c r="C57" s="25" t="n"/>
       <c r="D57" s="2" t="n"/>
-      <c r="E57" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E57" s="25" t="n"/>
       <c r="F57" s="2" t="n"/>
     </row>
-    <row r="58" ht="15" customHeight="1" thickBot="1">
+    <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Gastos actividades durante visita de Roshi</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="B58" s="2" t="n"/>
       <c r="C58" s="25" t="n">
-        <v>16750</v>
+        <v>126322</v>
       </c>
       <c r="D58" s="2" t="n"/>
       <c r="E58" s="25" t="n">
@@ -1332,18 +1324,18 @@
       </c>
       <c r="B59" s="2" t="n"/>
       <c r="C59" s="25" t="n">
-        <v>26525</v>
+        <v>42550</v>
       </c>
       <c r="D59" s="2" t="n"/>
       <c r="E59" s="25" t="n">
-        <v>0</v>
+        <v>23828</v>
       </c>
       <c r="F59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Abarrotes Ceremonias /Meditaciones formales y otras provisiones</t>
+          <t>Ceremonias</t>
         </is>
       </c>
       <c r="B60" s="2" t="n"/>
@@ -1352,7 +1344,7 @@
       </c>
       <c r="D60" s="2" t="n"/>
       <c r="E60" s="25" t="n">
-        <v>39000</v>
+        <v>84495.48</v>
       </c>
       <c r="F60" s="2" t="n"/>
     </row>
@@ -1364,15 +1356,15 @@
       </c>
       <c r="B61" s="2" t="n"/>
       <c r="C61" s="26" t="n">
-        <v>791973.6</v>
+        <v>168872</v>
       </c>
       <c r="D61" s="2" t="n"/>
       <c r="E61" s="26" t="n">
-        <v>39000</v>
+        <v>108323.48</v>
       </c>
       <c r="F61" s="2" t="n"/>
     </row>
-    <row r="62">
+    <row r="62" ht="15" customHeight="1" thickBot="1">
       <c r="A62" s="2" t="n"/>
       <c r="B62" s="2" t="n"/>
       <c r="C62" s="25" t="n"/>
@@ -1400,11 +1392,11 @@
       </c>
       <c r="B64" s="16" t="n"/>
       <c r="C64" s="25" t="n">
-        <v>59780</v>
+        <v>91210</v>
       </c>
       <c r="D64" s="16" t="n"/>
       <c r="E64" s="25" t="n">
-        <v>75135</v>
+        <v>69555</v>
       </c>
       <c r="F64" s="2" t="n"/>
     </row>
@@ -1416,44 +1408,36 @@
       </c>
       <c r="B65" s="16" t="n"/>
       <c r="C65" s="25" t="n">
-        <v>47465.15</v>
+        <v>47454.26</v>
       </c>
       <c r="D65" s="16" t="n"/>
       <c r="E65" s="25" t="n">
-        <v>21425.55</v>
+        <v>35423.76</v>
       </c>
       <c r="F65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Correo</t>
+          <t>Total Gastos publicos y otros</t>
         </is>
       </c>
       <c r="B66" s="16" t="n"/>
-      <c r="C66" s="25" t="n">
-        <v>0</v>
+      <c r="C66" s="26" t="n">
+        <v>138664.26</v>
       </c>
       <c r="D66" s="16" t="n"/>
-      <c r="E66" s="25" t="n">
-        <v>3235</v>
+      <c r="E66" s="26" t="n">
+        <v>104978.76</v>
       </c>
       <c r="F66" s="2" t="n"/>
     </row>
-    <row r="67" ht="27" customHeight="1">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Total Gastos publicos y otros</t>
-        </is>
-      </c>
+    <row r="67">
+      <c r="A67" s="2" t="n"/>
       <c r="B67" s="16" t="n"/>
-      <c r="C67" s="26" t="n">
-        <v>107245.15</v>
-      </c>
+      <c r="C67" s="25" t="n"/>
       <c r="D67" s="16" t="n"/>
-      <c r="E67" s="26" t="n">
-        <v>99795.55</v>
-      </c>
+      <c r="E67" s="25" t="n"/>
       <c r="F67" s="2" t="n"/>
     </row>
     <row r="68">
@@ -1464,8 +1448,12 @@
       <c r="E68" s="25" t="n"/>
       <c r="F68" s="2" t="n"/>
     </row>
-    <row r="69" ht="40.8" customHeight="1" thickBot="1">
-      <c r="A69" s="2" t="n"/>
+    <row r="69">
+      <c r="A69" s="13" t="inlineStr">
+        <is>
+          <t>Gastos Generales</t>
+        </is>
+      </c>
       <c r="B69" s="16" t="n"/>
       <c r="C69" s="25" t="n"/>
       <c r="D69" s="16" t="n"/>
@@ -1473,83 +1461,83 @@
       <c r="F69" s="2" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="13" t="inlineStr">
-        <is>
-          <t>Gastos Generales</t>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Papeleria y utiles</t>
         </is>
       </c>
       <c r="B70" s="16" t="n"/>
-      <c r="C70" s="25" t="n"/>
+      <c r="C70" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="D70" s="16" t="n"/>
-      <c r="E70" s="25" t="n"/>
+      <c r="E70" s="25" t="n">
+        <v>83970</v>
+      </c>
       <c r="F70" s="2" t="n"/>
     </row>
-    <row r="71">
+    <row r="71" ht="27" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Papeleria y utiles</t>
+          <t>Licencia mensual-Zoom</t>
         </is>
       </c>
       <c r="B71" s="16" t="n"/>
       <c r="C71" s="25" t="n">
-        <v>0</v>
+        <v>8669.68</v>
       </c>
       <c r="D71" s="16" t="n"/>
       <c r="E71" s="25" t="n">
-        <v>10000</v>
+        <v>19385.19</v>
       </c>
       <c r="F71" s="2" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Licencia mensual-Zoom</t>
+          <t>Materiales limpieza</t>
         </is>
       </c>
       <c r="B72" s="16" t="n"/>
       <c r="C72" s="25" t="n">
-        <v>8787.18</v>
-      </c>
-      <c r="D72" s="16" t="n"/>
+        <v>89485</v>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="25" t="n">
-        <v>0</v>
+        <v>122718</v>
       </c>
       <c r="F72" s="2" t="n"/>
     </row>
-    <row r="73">
+    <row r="73" ht="40.8" customHeight="1" thickBot="1">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>Materiales limpieza</t>
-        </is>
-      </c>
-      <c r="B73" s="16" t="n"/>
-      <c r="C73" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="21" t="n"/>
-      <c r="E73" s="25" t="n">
-        <v>59000</v>
+          <t>Total Gastos Generales</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n"/>
+      <c r="C73" s="26" t="n">
+        <v>98154.67999999999</v>
+      </c>
+      <c r="D73" s="16" t="n"/>
+      <c r="E73" s="26" t="n">
+        <v>226073.19</v>
       </c>
       <c r="F73" s="2" t="n"/>
     </row>
-    <row r="74" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Total Gastos Generales</t>
-        </is>
-      </c>
+    <row r="74">
+      <c r="A74" s="2" t="n"/>
       <c r="B74" s="2" t="n"/>
-      <c r="C74" s="26" t="n">
-        <v>8787.18</v>
-      </c>
-      <c r="D74" s="16" t="n"/>
-      <c r="E74" s="26" t="n">
-        <v>69000</v>
-      </c>
+      <c r="C74" s="25" t="n"/>
+      <c r="D74" s="2" t="n"/>
+      <c r="E74" s="25" t="n"/>
       <c r="F74" s="2" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n"/>
+      <c r="A75" s="13" t="inlineStr">
+        <is>
+          <t>Retiros Personales</t>
+        </is>
+      </c>
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="25" t="n"/>
       <c r="D75" s="2" t="n"/>
@@ -1557,11 +1545,7 @@
       <c r="F75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="13" t="inlineStr">
-        <is>
-          <t>Retiros Personales</t>
-        </is>
-      </c>
+      <c r="A76" s="2" t="n"/>
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="25" t="n"/>
       <c r="D76" s="2" t="n"/>
@@ -1569,19 +1553,19 @@
       <c r="F76" s="2" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
+      <c r="A77" s="13" t="inlineStr">
+        <is>
+          <t>Donaciones</t>
+        </is>
+      </c>
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="25" t="n"/>
       <c r="D77" s="2" t="n"/>
       <c r="E77" s="25" t="n"/>
       <c r="F77" s="2" t="n"/>
     </row>
-    <row r="78" ht="15" customHeight="1" thickBot="1">
-      <c r="A78" s="13" t="inlineStr">
-        <is>
-          <t>Donaciones</t>
-        </is>
-      </c>
+    <row r="78" ht="27.6" customHeight="1" thickBot="1">
+      <c r="A78" s="2" t="n"/>
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="25" t="n"/>
       <c r="D78" s="2" t="n"/>
@@ -1589,317 +1573,272 @@
       <c r="F78" s="2" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Donacion</t>
+      <c r="A79" s="13" t="inlineStr">
+        <is>
+          <t>Gastos Financieros</t>
         </is>
       </c>
       <c r="B79" s="2" t="n"/>
-      <c r="C79" s="25" t="n">
-        <v>199668.57</v>
-      </c>
+      <c r="C79" s="25" t="n"/>
       <c r="D79" s="2" t="n"/>
-      <c r="E79" s="25" t="n">
-        <v>10000</v>
-      </c>
+      <c r="E79" s="25" t="n"/>
       <c r="F79" s="2" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>Total Gasto de Donaciones</t>
+          <t>Diferencial Cambiario</t>
         </is>
       </c>
       <c r="B80" s="2" t="n"/>
-      <c r="C80" s="26" t="n">
-        <v>199668.57</v>
+      <c r="C80" s="25" t="n">
+        <v>770779.92</v>
       </c>
       <c r="D80" s="2" t="n"/>
-      <c r="E80" s="26" t="n">
-        <v>10000</v>
+      <c r="E80" s="25" t="n">
+        <v>5491797.35</v>
       </c>
       <c r="F80" s="2" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Comision Bancaria</t>
+        </is>
+      </c>
       <c r="B81" s="2" t="n"/>
-      <c r="C81" s="25" t="n"/>
-      <c r="D81" s="2" t="n"/>
-      <c r="E81" s="25" t="n"/>
+      <c r="C81" s="25" t="n">
+        <v>8096.64</v>
+      </c>
+      <c r="D81" s="5" t="n"/>
+      <c r="E81" s="25" t="n">
+        <v>5007.31</v>
+      </c>
       <c r="F81" s="2" t="n"/>
     </row>
-    <row r="82">
-      <c r="A82" s="13" t="inlineStr">
-        <is>
-          <t>Gastos Financieros</t>
+    <row r="82" ht="15" customHeight="1" thickBot="1">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Total Gastos Financieros</t>
         </is>
       </c>
       <c r="B82" s="2" t="n"/>
-      <c r="C82" s="25" t="n"/>
+      <c r="C82" s="26" t="n">
+        <v>778876.5699999999</v>
+      </c>
       <c r="D82" s="2" t="n"/>
-      <c r="E82" s="25" t="n"/>
+      <c r="E82" s="26" t="n">
+        <v>5496804.66</v>
+      </c>
       <c r="F82" s="2" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Diferencial Cambiario</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
       <c r="B83" s="2" t="n"/>
-      <c r="C83" s="25" t="n">
-        <v>1038245.18</v>
-      </c>
+      <c r="C83" s="25" t="n"/>
       <c r="D83" s="2" t="n"/>
-      <c r="E83" s="25" t="n">
-        <v>15430.07</v>
-      </c>
+      <c r="E83" s="25" t="n"/>
       <c r="F83" s="2" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>Comision Bancaria</t>
-        </is>
-      </c>
+      <c r="A84" s="2" t="n"/>
       <c r="B84" s="2" t="n"/>
-      <c r="C84" s="25" t="n">
-        <v>2329.23</v>
-      </c>
-      <c r="D84" s="5" t="n"/>
-      <c r="E84" s="25" t="n">
-        <v>86960.89999999999</v>
-      </c>
+      <c r="C84" s="25" t="n"/>
+      <c r="D84" s="2" t="n"/>
+      <c r="E84" s="25" t="n"/>
       <c r="F84" s="2" t="n"/>
     </row>
-    <row r="85" ht="27" customHeight="1">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>Total Gastos Financieros</t>
+    <row r="85">
+      <c r="A85" s="13" t="inlineStr">
+        <is>
+          <t>Gastos miscelaneos</t>
         </is>
       </c>
       <c r="B85" s="2" t="n"/>
-      <c r="C85" s="26" t="n">
-        <v>1040574.41</v>
-      </c>
+      <c r="C85" s="25" t="n"/>
       <c r="D85" s="2" t="n"/>
-      <c r="E85" s="26" t="n">
-        <v>102390.97</v>
-      </c>
+      <c r="E85" s="25" t="n"/>
       <c r="F85" s="2" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n"/>
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Otros gastos (ver detalle en cuenta)</t>
+        </is>
+      </c>
       <c r="B86" s="2" t="n"/>
-      <c r="C86" s="25" t="n"/>
+      <c r="C86" s="25" t="n">
+        <v>49900</v>
+      </c>
       <c r="D86" s="2" t="n"/>
-      <c r="E86" s="25" t="n"/>
+      <c r="E86" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="F86" s="2" t="n"/>
     </row>
-    <row r="87" ht="27" customHeight="1">
-      <c r="A87" s="2" t="n"/>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Total Gastos Miscelaneos</t>
+        </is>
+      </c>
       <c r="B87" s="2" t="n"/>
-      <c r="C87" s="25" t="n"/>
+      <c r="C87" s="26" t="n">
+        <v>49900</v>
+      </c>
       <c r="D87" s="2" t="n"/>
-      <c r="E87" s="25" t="n"/>
+      <c r="E87" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="F87" s="2" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="13" t="inlineStr">
-        <is>
-          <t>Gastos miscelaneos</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
       <c r="B88" s="2" t="n"/>
       <c r="C88" s="25" t="n"/>
-      <c r="D88" s="2" t="n"/>
+      <c r="D88" s="5" t="n"/>
       <c r="E88" s="25" t="n"/>
       <c r="F88" s="2" t="n"/>
     </row>
-    <row r="89" ht="15" customHeight="1" thickBot="1">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>Otros gastos (ver detalle en cuenta)</t>
+    <row r="89" ht="27" customHeight="1">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>Total Gastos</t>
         </is>
       </c>
       <c r="B89" s="2" t="n"/>
-      <c r="C89" s="25" t="n">
-        <v>12000</v>
-      </c>
-      <c r="D89" s="2" t="n"/>
-      <c r="E89" s="25" t="n">
-        <v>0</v>
+      <c r="C89" s="26" t="n">
+        <v>1262807.51</v>
+      </c>
+      <c r="D89" s="5" t="n"/>
+      <c r="E89" s="26" t="n">
+        <v>6283382.16</v>
       </c>
       <c r="F89" s="2" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Total Gastos Miscelaneos</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
       <c r="B90" s="2" t="n"/>
-      <c r="C90" s="26" t="n">
-        <v>12000</v>
-      </c>
-      <c r="D90" s="2" t="n"/>
-      <c r="E90" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="C90" s="25" t="n"/>
+      <c r="D90" s="5" t="n"/>
+      <c r="E90" s="25" t="n"/>
       <c r="F90" s="2" t="n"/>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n"/>
+    <row r="91" ht="27" customHeight="1">
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t>Diferencia entre ingresos gastos antes de inversiones</t>
+        </is>
+      </c>
       <c r="B91" s="2" t="n"/>
-      <c r="C91" s="25" t="n"/>
+      <c r="C91" s="25" t="n">
+        <v>607007.29</v>
+      </c>
       <c r="D91" s="5" t="n"/>
-      <c r="E91" s="25" t="n"/>
+      <c r="E91" s="25" t="n">
+        <v>-4136390.91</v>
+      </c>
       <c r="F91" s="2" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>Total Gastos</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
       <c r="B92" s="2" t="n"/>
-      <c r="C92" s="26" t="n">
-        <v>2344848.9</v>
-      </c>
-      <c r="D92" s="5" t="n"/>
-      <c r="E92" s="26" t="n">
-        <v>379861.52</v>
-      </c>
+      <c r="C92" s="25" t="n"/>
+      <c r="D92" s="2" t="n"/>
+      <c r="E92" s="25" t="n"/>
       <c r="F92" s="2" t="n"/>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
+    <row r="93" ht="15" customHeight="1" thickBot="1">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>Inversiones en equipo y edificio</t>
+        </is>
+      </c>
+      <c r="B93" s="24" t="n">
+        <v>2023</v>
+      </c>
       <c r="C93" s="25" t="n"/>
-      <c r="D93" s="5" t="n"/>
+      <c r="D93" s="24" t="n">
+        <v>2022</v>
+      </c>
       <c r="E93" s="25" t="n"/>
       <c r="F93" s="2" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>Diferencia entre ingresos gastos antes de inversiones</t>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Equipo de computo</t>
         </is>
       </c>
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="25" t="n">
-        <v>1774621.7</v>
-      </c>
-      <c r="D94" s="5" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="2" t="n"/>
       <c r="E94" s="25" t="n">
-        <v>2110933.59</v>
-      </c>
-      <c r="F94" s="2" t="n"/>
-    </row>
-    <row r="95" ht="27" customHeight="1">
-      <c r="A95" s="2" t="n"/>
+        <v>532851.89</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Total Inversiones en equipo y edificio</t>
+        </is>
+      </c>
       <c r="B95" s="2" t="n"/>
-      <c r="C95" s="25" t="n"/>
+      <c r="C95" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="D95" s="2" t="n"/>
-      <c r="E95" s="25" t="n"/>
-      <c r="F95" s="2" t="n"/>
+      <c r="E95" s="26" t="n">
+        <v>532851.89</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>Inversiones en equipo y edificio</t>
-        </is>
-      </c>
-      <c r="B96" s="24" t="n">
-        <v>2023</v>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="25" t="n"/>
-      <c r="D96" s="24" t="n">
-        <v>2022</v>
-      </c>
+      <c r="D96" s="5" t="n"/>
       <c r="E96" s="25" t="n"/>
-      <c r="F96" s="24" t="inlineStr">
-        <is>
-          <t>Comentarios</t>
-        </is>
-      </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Remodelacion</t>
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>Diferencia entre ingresos, gastos e inversion en equipo y edificio</t>
         </is>
       </c>
       <c r="B97" s="2" t="n"/>
       <c r="C97" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2" t="n"/>
+        <v>607007.29</v>
+      </c>
+      <c r="D97" s="5" t="n"/>
       <c r="E97" s="25" t="n">
-        <v>150000</v>
-      </c>
-      <c r="F97" s="2" t="n"/>
-    </row>
-    <row r="98" ht="15" customHeight="1" thickBot="1">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Total Inversiones en equipo y edificio</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="n"/>
-      <c r="C98" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2" t="n"/>
-      <c r="E98" s="26" t="n">
-        <v>150000</v>
-      </c>
-      <c r="F98" s="2" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
-      <c r="C99" s="25" t="n"/>
-      <c r="D99" s="5" t="n"/>
-      <c r="E99" s="25" t="n"/>
-      <c r="F99" s="2" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>Diferencia entre ingresos, gastos e inversion en equipo y edificio</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="n"/>
-      <c r="C100" s="25" t="n">
-        <v>1774621.7</v>
-      </c>
-      <c r="D100" s="5" t="n"/>
-      <c r="E100" s="25" t="n">
-        <v>1960933.59</v>
-      </c>
-      <c r="F100" s="2" t="n"/>
-    </row>
-    <row r="109" ht="15" customHeight="1" thickBot="1"/>
-    <row r="120" ht="15" customHeight="1" thickBot="1"/>
-    <row r="126" ht="15" customHeight="1" thickBot="1"/>
-    <row r="132" ht="15" customHeight="1" thickBot="1"/>
-    <row r="137" ht="15" customHeight="1" thickBot="1"/>
-    <row r="153" ht="15" customHeight="1" thickBot="1"/>
-    <row r="155" ht="15" customHeight="1" thickBot="1"/>
-    <row r="156" ht="15" customHeight="1" thickBot="1"/>
-    <row r="157" ht="15" customHeight="1" thickBot="1"/>
-    <row r="158" ht="27.6" customHeight="1" thickBot="1"/>
-    <row r="168" ht="15" customHeight="1" thickBot="1"/>
-    <row r="170" ht="15" customHeight="1" thickBot="1"/>
-    <row r="171" ht="27.6" customHeight="1" thickBot="1"/>
+        <v>-4669242.8</v>
+      </c>
+    </row>
+    <row r="99" ht="27" customHeight="1"/>
+    <row r="104" ht="27" customHeight="1"/>
+    <row r="105" ht="15" customHeight="1" thickBot="1"/>
+    <row r="116" ht="15" customHeight="1" thickBot="1"/>
+    <row r="127" ht="15" customHeight="1" thickBot="1"/>
+    <row r="133" ht="15" customHeight="1" thickBot="1"/>
+    <row r="139" ht="15" customHeight="1" thickBot="1"/>
+    <row r="144" ht="15" customHeight="1" thickBot="1"/>
+    <row r="161" ht="15" customHeight="1" thickBot="1"/>
+    <row r="163" ht="15" customHeight="1" thickBot="1"/>
+    <row r="164" ht="15" customHeight="1" thickBot="1"/>
+    <row r="165" ht="15" customHeight="1" thickBot="1"/>
+    <row r="166" ht="27.6" customHeight="1" thickBot="1"/>
+    <row r="176" ht="15" customHeight="1" thickBot="1"/>
+    <row r="178" ht="15" customHeight="1" thickBot="1"/>
+    <row r="179" ht="27.6" customHeight="1" thickBot="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="D168:E168"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <hyperlinks>
@@ -1916,10 +1855,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E170"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.44140625" defaultRowHeight="14.4"/>
@@ -2051,7 +1990,7 @@
       </c>
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="9" t="n">
-        <v>8415433.85</v>
+        <v>8470434.02</v>
       </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="9" t="n">
@@ -2099,7 +2038,7 @@
       </c>
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="9" t="n">
-        <v>10215437.11</v>
+        <v>10270437.28</v>
       </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="9" t="n">
@@ -2135,7 +2074,7 @@
       </c>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="9" t="n">
-        <v>3854685.32</v>
+        <v>3874685.32</v>
       </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="9" t="n">
@@ -2247,7 +2186,7 @@
       </c>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="9" t="n">
-        <v>7004856.96</v>
+        <v>7024856.96</v>
       </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="9" t="n">
@@ -2291,7 +2230,7 @@
       </c>
       <c r="B27" s="2" t="n"/>
       <c r="C27" s="9" t="n">
-        <v>1089773.84</v>
+        <v>1409416.64</v>
       </c>
       <c r="D27" s="2" t="n"/>
       <c r="E27" s="9" t="n">
@@ -2347,18 +2286,18 @@
       </c>
       <c r="F30" s="2" t="n"/>
     </row>
-    <row r="31" ht="15" customHeight="1" thickBot="1">
+    <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Donacion - Visita Roshi</t>
         </is>
       </c>
       <c r="B31" s="2" t="n"/>
-      <c r="C31" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5" t="n"/>
-      <c r="E31" s="20" t="n">
+      <c r="C31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="n"/>
@@ -2366,173 +2305,173 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Total Donaciones</t>
+          <t>Actividad de 50 aniversario</t>
         </is>
       </c>
       <c r="B32" s="2" t="n"/>
-      <c r="C32" s="9" t="n">
-        <v>1422199.39</v>
+      <c r="C32" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="n"/>
-      <c r="E32" s="9" t="n">
-        <v>2280569.61</v>
+      <c r="E32" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n"/>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n"/>
+    <row r="33" ht="27" customHeight="1">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Actividad de Ordenacion de Bodhi</t>
+        </is>
+      </c>
       <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
+      <c r="C33" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
+      <c r="E33" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F33" s="2" t="n"/>
     </row>
-    <row r="34">
-      <c r="A34" s="13" t="inlineStr">
-        <is>
-          <t>Retiros Personales</t>
+    <row r="34" ht="27" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Atencion de visitantes - 50 aniversario/ordenacion</t>
         </is>
       </c>
       <c r="B34" s="2" t="n"/>
-      <c r="C34" s="2" t="n"/>
+      <c r="C34" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
+      <c r="E34" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F34" s="2" t="n"/>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Retiros personales - Hospedaje</t>
-        </is>
-      </c>
+    <row r="35" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="2" t="n"/>
       <c r="B35" s="2" t="n"/>
-      <c r="C35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="9" t="n">
-        <v>261103.55</v>
-      </c>
+      <c r="C35" s="5" t="n"/>
+      <c r="D35" s="5" t="n"/>
+      <c r="E35" s="5" t="n"/>
       <c r="F35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
+          <t>Total Donaciones</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n"/>
+      <c r="C36" s="9" t="n">
+        <v>1741842.19</v>
+      </c>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="9" t="n">
+        <v>2280569.61</v>
+      </c>
+      <c r="F36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="13" t="inlineStr">
+        <is>
+          <t>Retiros Personales</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Retiros personales - Hospedaje</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n"/>
+      <c r="C39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="9" t="n">
+        <v>261103.55</v>
+      </c>
+      <c r="F39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
           <t>Retiros personales - Alimentacion</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n"/>
-      <c r="C36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="n"/>
-    </row>
-    <row r="37" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="B40" s="2" t="n"/>
+      <c r="C40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="n"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>Retiros personales - Donaciones</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n"/>
-      <c r="C37" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5" t="n"/>
-      <c r="E37" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="B41" s="2" t="n"/>
+      <c r="C41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="n"/>
+      <c r="E41" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>Total Retiros Personales</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n"/>
-      <c r="C38" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="9" t="n">
+      <c r="B42" s="2" t="n"/>
+      <c r="C42" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="9" t="n">
         <v>261103.55</v>
       </c>
-      <c r="F38" s="2" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
-      <c r="C39" s="2" t="n"/>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="13" t="inlineStr">
+      <c r="F42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="13" t="inlineStr">
         <is>
           <t>Ingresos Financieros</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n"/>
-      <c r="C40" s="2" t="n"/>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Diferencial Cambiario</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n"/>
-      <c r="C41" s="9" t="n">
-        <v>1574223.26</v>
-      </c>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="9" t="n">
-        <v>5315699.68</v>
-      </c>
-      <c r="F41" s="2" t="n"/>
-    </row>
-    <row r="42" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Interes Ganados</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n"/>
-      <c r="C42" s="14" t="n">
-        <v>1603340.43</v>
-      </c>
-      <c r="D42" s="5" t="n"/>
-      <c r="E42" s="14" t="n">
-        <v>675737.47</v>
-      </c>
-      <c r="F42" s="2" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Total Ingresos Financieros</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="n"/>
-      <c r="C43" s="9" t="n">
-        <v>3177563.69</v>
-      </c>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="9" t="n">
-        <v>5991437.14</v>
-      </c>
-      <c r="F43" s="2" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n"/>
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="n"/>
       <c r="D44" s="2" t="n"/>
@@ -2540,165 +2479,157 @@
       <c r="F44" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="inlineStr">
-        <is>
-          <t>Ingresos Miscelaneos</t>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Diferencial Cambiario</t>
         </is>
       </c>
       <c r="B45" s="2" t="n"/>
-      <c r="C45" s="2" t="n"/>
+      <c r="C45" s="9" t="n">
+        <v>1574223.26</v>
+      </c>
       <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
+      <c r="E45" s="9" t="n">
+        <v>5315699.68</v>
+      </c>
       <c r="F45" s="2" t="n"/>
     </row>
-    <row r="46">
+    <row r="46" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>Calendarios</t>
+          <t>Interes Ganados</t>
         </is>
       </c>
       <c r="B46" s="2" t="n"/>
-      <c r="C46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="7" t="n">
-        <v>0</v>
+      <c r="C46" s="14" t="n">
+        <v>1603340.43</v>
+      </c>
+      <c r="D46" s="5" t="n"/>
+      <c r="E46" s="14" t="n">
+        <v>675737.47</v>
       </c>
       <c r="F46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Cine almuerzo</t>
+          <t>Total Ingresos Financieros</t>
         </is>
       </c>
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="9" t="n">
-        <v>58550</v>
+        <v>3177563.69</v>
       </c>
       <c r="D47" s="2" t="n"/>
       <c r="E47" s="9" t="n">
-        <v>20005.98</v>
+        <v>5991437.14</v>
       </c>
       <c r="F47" s="2" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Petates</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
       <c r="B48" s="2" t="n"/>
-      <c r="C48" s="9" t="n">
-        <v>132000</v>
-      </c>
+      <c r="C48" s="2" t="n"/>
       <c r="D48" s="2" t="n"/>
-      <c r="E48" s="9" t="n">
-        <v>54001.49</v>
-      </c>
+      <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Tunicas y Bluzones</t>
+      <c r="A49" s="13" t="inlineStr">
+        <is>
+          <t>Ingresos Miscelaneos</t>
         </is>
       </c>
       <c r="B49" s="2" t="n"/>
-      <c r="C49" s="9" t="n">
-        <v>124999.85</v>
-      </c>
+      <c r="C49" s="2" t="n"/>
       <c r="D49" s="2" t="n"/>
-      <c r="E49" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Libros</t>
+          <t>Calendarios</t>
         </is>
       </c>
       <c r="B50" s="2" t="n"/>
-      <c r="C50" s="9" t="n">
-        <v>65000</v>
+      <c r="C50" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="n"/>
-      <c r="E50" s="9" t="n">
-        <v>25999.99</v>
+      <c r="E50" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Libros de cantos</t>
+          <t>Cine almuerzo</t>
         </is>
       </c>
       <c r="B51" s="2" t="n"/>
-      <c r="C51" s="7" t="n">
-        <v>0</v>
+      <c r="C51" s="9" t="n">
+        <v>64950</v>
       </c>
       <c r="D51" s="2" t="n"/>
-      <c r="E51" s="7" t="n">
-        <v>0</v>
+      <c r="E51" s="9" t="n">
+        <v>20005.98</v>
       </c>
       <c r="F51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Teishos</t>
+          <t>Petates</t>
         </is>
       </c>
       <c r="B52" s="2" t="n"/>
-      <c r="C52" s="7" t="n">
-        <v>0</v>
+      <c r="C52" s="9" t="n">
+        <v>132000</v>
       </c>
       <c r="D52" s="2" t="n"/>
-      <c r="E52" s="7" t="n">
-        <v>0</v>
+      <c r="E52" s="9" t="n">
+        <v>54001.49</v>
       </c>
       <c r="F52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>Mascarillas</t>
+          <t>Tunicas y Bluzones</t>
         </is>
       </c>
       <c r="B53" s="2" t="n"/>
-      <c r="C53" s="7" t="n">
-        <v>0</v>
+      <c r="C53" s="9" t="n">
+        <v>124999.85</v>
       </c>
       <c r="D53" s="2" t="n"/>
-      <c r="E53" s="9" t="n">
-        <v>4000</v>
+      <c r="E53" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n"/>
     </row>
-    <row r="54" ht="27" customHeight="1">
+    <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Donacion por venta de equipo usado</t>
+          <t>Libros</t>
         </is>
       </c>
       <c r="B54" s="2" t="n"/>
-      <c r="C54" s="7" t="n">
-        <v>0</v>
+      <c r="C54" s="9" t="n">
+        <v>65000</v>
       </c>
       <c r="D54" s="2" t="n"/>
-      <c r="E54" s="7" t="n">
-        <v>0</v>
+      <c r="E54" s="9" t="n">
+        <v>25999.99</v>
       </c>
       <c r="F54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Subasta siliente</t>
+          <t>Libros de cantos</t>
         </is>
       </c>
       <c r="B55" s="2" t="n"/>
@@ -2714,12 +2645,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Cursos y charlas externas</t>
+          <t>Teishos</t>
         </is>
       </c>
       <c r="B56" s="2" t="n"/>
-      <c r="C56" s="9" t="n">
-        <v>80000</v>
+      <c r="C56" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D56" s="2" t="n"/>
       <c r="E56" s="7" t="n">
@@ -2727,87 +2658,101 @@
       </c>
       <c r="F56" s="2" t="n"/>
     </row>
-    <row r="57" ht="15" customHeight="1" thickBot="1">
+    <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Controles de porton</t>
+          <t>Mascarillas</t>
         </is>
       </c>
       <c r="B57" s="2" t="n"/>
-      <c r="C57" s="14" t="n">
-        <v>41000</v>
-      </c>
-      <c r="D57" s="5" t="n"/>
-      <c r="E57" s="20" t="n">
-        <v>0</v>
+      <c r="C57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="9" t="n">
+        <v>4000</v>
       </c>
       <c r="F57" s="2" t="n"/>
     </row>
-    <row r="58">
+    <row r="58" ht="27" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Total Ingresos Miscelaneos</t>
+          <t>Donacion por venta de equipo usado</t>
         </is>
       </c>
       <c r="B58" s="2" t="n"/>
-      <c r="C58" s="9" t="n">
-        <v>501549.85</v>
+      <c r="C58" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D58" s="2" t="n"/>
-      <c r="E58" s="9" t="n">
-        <v>104007.46</v>
+      <c r="E58" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F58" s="2" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Subasta siliente</t>
+        </is>
+      </c>
       <c r="B59" s="2" t="n"/>
-      <c r="C59" s="2" t="n"/>
+      <c r="C59" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="n"/>
+      <c r="E59" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Total Ingresos</t>
+          <t>Cursos y charlas externas</t>
         </is>
       </c>
       <c r="B60" s="2" t="n"/>
-      <c r="C60" s="15" t="n">
-        <v>22321607.01</v>
+      <c r="C60" s="9" t="n">
+        <v>80000</v>
       </c>
       <c r="D60" s="2" t="n"/>
-      <c r="E60" s="15" t="n">
-        <v>27491833.83</v>
+      <c r="E60" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F60" s="2" t="n"/>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n"/>
+    <row r="61" ht="15" customHeight="1" thickBot="1">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Controles de porton</t>
+        </is>
+      </c>
       <c r="B61" s="2" t="n"/>
-      <c r="C61" s="2" t="n"/>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
+      <c r="C61" s="14" t="n">
+        <v>41000</v>
+      </c>
+      <c r="D61" s="5" t="n"/>
+      <c r="E61" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F61" s="2" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>Gastos</t>
-        </is>
-      </c>
-      <c r="B62" s="24" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D62" s="24" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F62" s="24" t="inlineStr">
-        <is>
-          <t>Comentarios</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Total Ingresos Miscelaneos</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n"/>
+      <c r="C62" s="9" t="n">
+        <v>507949.85</v>
+      </c>
+      <c r="D62" s="2" t="n"/>
+      <c r="E62" s="9" t="n">
+        <v>104007.46</v>
+      </c>
+      <c r="F62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n"/>
@@ -2818,214 +2763,216 @@
       <c r="F63" s="2" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="13" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Total Ingresos</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n"/>
+      <c r="C64" s="15" t="n">
+        <v>22722649.97</v>
+      </c>
+      <c r="D64" s="2" t="n"/>
+      <c r="E64" s="15" t="n">
+        <v>27491833.83</v>
+      </c>
+      <c r="F64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="2" t="n"/>
+      <c r="C65" s="2" t="n"/>
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Gastos</t>
+        </is>
+      </c>
+      <c r="B66" s="24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D66" s="24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F66" s="24" t="inlineStr">
+        <is>
+          <t>Comentarios</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
+      <c r="C67" s="2" t="n"/>
+      <c r="D67" s="2" t="n"/>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="13" t="inlineStr">
         <is>
           <t>Mantenimiento</t>
         </is>
       </c>
-      <c r="B64" s="2" t="n"/>
-      <c r="C64" s="2" t="n"/>
-      <c r="D64" s="2" t="n"/>
-      <c r="E64" s="2" t="n"/>
-      <c r="F64" s="2" t="n"/>
-    </row>
-    <row r="65" ht="27" customHeight="1">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Mantenimiento de edificio (Mano de Obra)</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="n"/>
-      <c r="C65" s="9" t="n">
-        <v>3327833.5</v>
-      </c>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="9" t="n">
-        <v>936000</v>
-      </c>
-      <c r="F65" s="2" t="n"/>
-    </row>
-    <row r="66" ht="27" customHeight="1">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Mantenimiento de jardines (mano de obra)</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="n"/>
-      <c r="C66" s="9" t="n">
-        <v>621000</v>
-      </c>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="9" t="n">
-        <v>539000.14</v>
-      </c>
-      <c r="F66" s="2" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Mantenimiento de lavadoras</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="n"/>
-      <c r="C67" s="9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="D67" s="2" t="n"/>
-      <c r="E67" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2" t="n"/>
-    </row>
-    <row r="68" ht="40.8" customHeight="1" thickBot="1">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Servicios de mantenimiento de computadora y tecnologia general (Mano de obra)</t>
-        </is>
-      </c>
       <c r="B68" s="2" t="n"/>
-      <c r="C68" s="14" t="n">
-        <v>80000</v>
-      </c>
+      <c r="C68" s="2" t="n"/>
       <c r="D68" s="2" t="n"/>
-      <c r="E68" s="14" t="n">
-        <v>71950</v>
-      </c>
+      <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
     </row>
     <row r="69" ht="27" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>Subtotal Mantenimiento Mano de obra</t>
+          <t>Mantenimiento de edificio (Mano de Obra)</t>
         </is>
       </c>
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="9" t="n">
-        <v>4078833.5</v>
+        <v>3327833.5</v>
       </c>
       <c r="D69" s="2" t="n"/>
       <c r="E69" s="9" t="n">
-        <v>1546950.14</v>
+        <v>936000</v>
       </c>
       <c r="F69" s="2" t="n"/>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n"/>
+    <row r="70" ht="27" customHeight="1">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Mantenimiento de jardines (mano de obra)</t>
+        </is>
+      </c>
       <c r="B70" s="2" t="n"/>
-      <c r="C70" s="2" t="n"/>
+      <c r="C70" s="9" t="n">
+        <v>621000</v>
+      </c>
       <c r="D70" s="2" t="n"/>
-      <c r="E70" s="2" t="n"/>
+      <c r="E70" s="9" t="n">
+        <v>539000.14</v>
+      </c>
       <c r="F70" s="2" t="n"/>
     </row>
-    <row r="71" ht="27" customHeight="1">
+    <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Mantenimiento de edificio (Materiales)</t>
+          <t>Mantenimiento de lavadoras</t>
         </is>
       </c>
       <c r="B71" s="2" t="n"/>
       <c r="C71" s="9" t="n">
-        <v>1775344.91</v>
+        <v>50000</v>
       </c>
       <c r="D71" s="2" t="n"/>
-      <c r="E71" s="9" t="n">
+      <c r="E71" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2" t="n"/>
+    </row>
+    <row r="72" ht="40.8" customHeight="1" thickBot="1">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Servicios de mantenimiento de computadora y tecnologia general (Mano de obra)</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n"/>
+      <c r="C72" s="14" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D72" s="2" t="n"/>
+      <c r="E72" s="14" t="n">
+        <v>71950</v>
+      </c>
+      <c r="F72" s="2" t="n"/>
+    </row>
+    <row r="73" ht="27" customHeight="1">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Subtotal Mantenimiento Mano de obra</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n"/>
+      <c r="C73" s="9" t="n">
+        <v>4078833.5</v>
+      </c>
+      <c r="D73" s="2" t="n"/>
+      <c r="E73" s="9" t="n">
+        <v>1546950.14</v>
+      </c>
+      <c r="F73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n"/>
+      <c r="B74" s="2" t="n"/>
+      <c r="C74" s="2" t="n"/>
+      <c r="D74" s="2" t="n"/>
+      <c r="E74" s="2" t="n"/>
+      <c r="F74" s="2" t="n"/>
+    </row>
+    <row r="75" ht="27" customHeight="1">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Mantenimiento de edificio (Materiales)</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n"/>
+      <c r="C75" s="9" t="n">
+        <v>1788339.91</v>
+      </c>
+      <c r="D75" s="2" t="n"/>
+      <c r="E75" s="9" t="n">
         <v>319214.5</v>
       </c>
-      <c r="F71" s="2" t="n"/>
-    </row>
-    <row r="72" ht="27" customHeight="1">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="F75" s="2" t="n"/>
+    </row>
+    <row r="76" ht="27" customHeight="1">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>Mantenimiento de jardines (materiales)</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="n"/>
-      <c r="C72" s="9" t="n">
-        <v>291045</v>
-      </c>
-      <c r="D72" s="2" t="n"/>
-      <c r="E72" s="9" t="n">
-        <v>129707.02</v>
-      </c>
-      <c r="F72" s="2" t="n"/>
-    </row>
-    <row r="73" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>Mantenimiento de computadora y tecnologia - Materiales</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="n"/>
-      <c r="C73" s="14" t="n">
-        <v>150252.65</v>
-      </c>
-      <c r="D73" s="2" t="n"/>
-      <c r="E73" s="14" t="n">
-        <v>35000</v>
-      </c>
-      <c r="F73" s="2" t="n"/>
-    </row>
-    <row r="74" ht="27" customHeight="1">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Subtotal Mantenimiento Mano de obra</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="n"/>
-      <c r="C74" s="9" t="n">
-        <v>2216642.56</v>
-      </c>
-      <c r="D74" s="2" t="n"/>
-      <c r="E74" s="9" t="n">
-        <v>483921.52</v>
-      </c>
-      <c r="F74" s="2" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="2" t="n"/>
-      <c r="C75" s="2" t="n"/>
-      <c r="D75" s="2" t="n"/>
-      <c r="E75" s="2" t="n"/>
-      <c r="F75" s="2" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>Reparaciones (imprevistos)</t>
         </is>
       </c>
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="9" t="n">
-        <v>565550</v>
+        <v>291045</v>
       </c>
       <c r="D76" s="2" t="n"/>
       <c r="E76" s="9" t="n">
-        <v>98122.2</v>
+        <v>129707.02</v>
       </c>
       <c r="F76" s="2" t="n"/>
     </row>
-    <row r="77" ht="15" customHeight="1" thickBot="1">
-      <c r="A77" s="2" t="n"/>
+    <row r="77" ht="27.6" customHeight="1" thickBot="1">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Mantenimiento de computadora y tecnologia - Materiales</t>
+        </is>
+      </c>
       <c r="B77" s="2" t="n"/>
-      <c r="C77" s="5" t="n"/>
-      <c r="D77" s="5" t="n"/>
-      <c r="E77" s="5" t="n"/>
+      <c r="C77" s="14" t="n">
+        <v>150252.65</v>
+      </c>
+      <c r="D77" s="2" t="n"/>
+      <c r="E77" s="14" t="n">
+        <v>35000</v>
+      </c>
       <c r="F77" s="2" t="n"/>
     </row>
-    <row r="78">
+    <row r="78" ht="27" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>Total Mantenimiento</t>
+          <t>Subtotal Mantenimiento Mano de obra</t>
         </is>
       </c>
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="9" t="n">
-        <v>6295476.06</v>
+        <v>2229637.56</v>
       </c>
       <c r="D78" s="2" t="n"/>
       <c r="E78" s="9" t="n">
-        <v>2128993.85</v>
+        <v>483921.52</v>
       </c>
       <c r="F78" s="2" t="n"/>
     </row>
@@ -3038,114 +2985,98 @@
       <c r="F79" s="2" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Reparaciones (imprevistos)</t>
+        </is>
+      </c>
       <c r="B80" s="2" t="n"/>
-      <c r="C80" s="2" t="n"/>
+      <c r="C80" s="9" t="n">
+        <v>565550</v>
+      </c>
       <c r="D80" s="2" t="n"/>
-      <c r="E80" s="2" t="n"/>
+      <c r="E80" s="9" t="n">
+        <v>98122.2</v>
+      </c>
       <c r="F80" s="2" t="n"/>
     </row>
-    <row r="81">
-      <c r="A81" s="13" t="inlineStr">
-        <is>
-          <t>Gastos actividades</t>
-        </is>
-      </c>
+    <row r="81" ht="15" customHeight="1" thickBot="1">
+      <c r="A81" s="2" t="n"/>
       <c r="B81" s="2" t="n"/>
-      <c r="C81" s="2" t="n"/>
-      <c r="D81" s="2" t="n"/>
-      <c r="E81" s="2" t="n"/>
+      <c r="C81" s="5" t="n"/>
+      <c r="D81" s="5" t="n"/>
+      <c r="E81" s="5" t="n"/>
       <c r="F81" s="2" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>Gasto seshin - Alimentacion</t>
+          <t>Total Mantenimiento</t>
         </is>
       </c>
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="9" t="n">
+        <v>6308471.06</v>
+      </c>
+      <c r="D82" s="2" t="n"/>
+      <c r="E82" s="9" t="n">
+        <v>2128993.85</v>
+      </c>
+      <c r="F82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
+      <c r="C83" s="2" t="n"/>
+      <c r="D83" s="2" t="n"/>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="2" t="n"/>
+      <c r="C84" s="2" t="n"/>
+      <c r="D84" s="2" t="n"/>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="13" t="inlineStr">
+        <is>
+          <t>Gastos actividades</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n"/>
+      <c r="C85" s="2" t="n"/>
+      <c r="D85" s="2" t="n"/>
+      <c r="E85" s="2" t="n"/>
+      <c r="F85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Gasto seshin - Alimentacion</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n"/>
+      <c r="C86" s="9" t="n">
         <v>1861136.68</v>
       </c>
-      <c r="D82" s="2" t="n"/>
-      <c r="E82" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2" t="n"/>
-    </row>
-    <row r="83" ht="27" customHeight="1">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2" t="n"/>
+    </row>
+    <row r="87" ht="27" customHeight="1">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>Gasto seshin - Materiales de limpieza</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="n"/>
-      <c r="C83" s="9" t="n">
-        <v>267277</v>
-      </c>
-      <c r="D83" s="2" t="n"/>
-      <c r="E83" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="2" t="n"/>
-    </row>
-    <row r="84" ht="27" customHeight="1">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>Gasto seshin - Mantemiento preventivo casa</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="n"/>
-      <c r="C84" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" s="2" t="n"/>
-      <c r="E84" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>Gasto seshin - Tiquete Roshi</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="n"/>
-      <c r="C85" s="9" t="n">
-        <v>749930.35</v>
-      </c>
-      <c r="D85" s="2" t="n"/>
-      <c r="E85" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" s="2" t="n"/>
-    </row>
-    <row r="86" ht="27" customHeight="1">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>Gasto seshin - Contribucion Ross Martin (Jakatas)</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="n"/>
-      <c r="C86" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2" t="n"/>
-      <c r="E86" s="9" t="n">
-        <v>435659</v>
-      </c>
-      <c r="F86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Gasto seshin - Flores y Altares</t>
         </is>
       </c>
       <c r="B87" s="2" t="n"/>
       <c r="C87" s="9" t="n">
-        <v>77500</v>
+        <v>267277</v>
       </c>
       <c r="D87" s="2" t="n"/>
       <c r="E87" s="7" t="n">
@@ -3153,18 +3084,18 @@
       </c>
       <c r="F87" s="2" t="n"/>
     </row>
-    <row r="88" ht="15" customHeight="1" thickBot="1">
+    <row r="88" ht="27" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Gasto seshin - Atencion visitantes</t>
+          <t>Gasto seshin - Mantemiento preventivo casa</t>
         </is>
       </c>
       <c r="B88" s="2" t="n"/>
-      <c r="C88" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" s="5" t="n"/>
-      <c r="E88" s="20" t="n">
+      <c r="C88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2" t="n"/>
+      <c r="E88" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="2" t="n"/>
@@ -3172,581 +3103,597 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>Subtotal Seshines</t>
+          <t>Gasto seshin - Tiquete Roshi</t>
         </is>
       </c>
       <c r="B89" s="2" t="n"/>
       <c r="C89" s="9" t="n">
-        <v>2955844.03</v>
+        <v>749930.35</v>
       </c>
       <c r="D89" s="2" t="n"/>
-      <c r="E89" s="9" t="n">
-        <v>435659</v>
+      <c r="E89" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F89" s="2" t="n"/>
     </row>
     <row r="90" ht="27" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Gastos actividades durante visita de Roshi</t>
+          <t>Gasto seshin - Contribucion Ross Martin (Jakatas)</t>
         </is>
       </c>
       <c r="B90" s="2" t="n"/>
-      <c r="C90" s="9" t="n">
-        <v>745864</v>
+      <c r="C90" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D90" s="2" t="n"/>
-      <c r="E90" s="7" t="n">
-        <v>0</v>
+      <c r="E90" s="9" t="n">
+        <v>435659</v>
       </c>
       <c r="F90" s="2" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Gasto seshin - Flores y Altares</t>
         </is>
       </c>
       <c r="B91" s="2" t="n"/>
       <c r="C91" s="9" t="n">
-        <v>556840</v>
+        <v>77500</v>
       </c>
       <c r="D91" s="2" t="n"/>
-      <c r="E91" s="9" t="n">
-        <v>302085</v>
+      <c r="E91" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F91" s="2" t="n"/>
     </row>
-    <row r="92">
+    <row r="92" ht="15" customHeight="1" thickBot="1">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>Dia de zazen</t>
+          <t>Gasto seshin - Atencion visitantes</t>
         </is>
       </c>
       <c r="B92" s="2" t="n"/>
-      <c r="C92" s="9" t="n">
-        <v>299471.35</v>
-      </c>
-      <c r="D92" s="2" t="n"/>
-      <c r="E92" s="9" t="n">
-        <v>240172</v>
+      <c r="C92" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" s="5" t="n"/>
+      <c r="E92" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="F92" s="2" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>Dia de trabajo</t>
+          <t>Subtotal Seshines</t>
         </is>
       </c>
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="9" t="n">
-        <v>157105.1</v>
+        <v>2955844.03</v>
       </c>
       <c r="D93" s="2" t="n"/>
-      <c r="E93" s="7" t="n">
-        <v>0</v>
+      <c r="E93" s="9" t="n">
+        <v>435659</v>
       </c>
       <c r="F93" s="2" t="n"/>
     </row>
-    <row r="94" ht="40.2" customHeight="1">
+    <row r="94" ht="27" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>Abarrotes Ceremonias /Meditaciones formales y otras provisiones</t>
+          <t>Gastos actividades durante visita de Roshi</t>
         </is>
       </c>
       <c r="B94" s="2" t="n"/>
-      <c r="C94" s="7" t="n">
-        <v>0</v>
+      <c r="C94" s="9" t="n">
+        <v>745864</v>
       </c>
       <c r="D94" s="2" t="n"/>
-      <c r="E94" s="9" t="n">
-        <v>194916</v>
+      <c r="E94" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F94" s="2" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>Ceremonias</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="9" t="n">
-        <v>283099.37</v>
+        <v>561265</v>
       </c>
       <c r="D95" s="2" t="n"/>
       <c r="E95" s="9" t="n">
-        <v>109115.08</v>
+        <v>302085</v>
       </c>
       <c r="F95" s="2" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Grupos de Estudio</t>
+          <t>Dia de zazen</t>
         </is>
       </c>
       <c r="B96" s="2" t="n"/>
-      <c r="C96" s="7" t="n">
-        <v>0</v>
+      <c r="C96" s="9" t="n">
+        <v>299471.35</v>
       </c>
       <c r="D96" s="2" t="n"/>
-      <c r="E96" s="7" t="n">
-        <v>0</v>
+      <c r="E96" s="9" t="n">
+        <v>240172</v>
       </c>
       <c r="F96" s="2" t="n"/>
     </row>
-    <row r="97" ht="15" customHeight="1" thickBot="1">
+    <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Atencion de grupos externos</t>
+          <t>Dia de trabajo</t>
         </is>
       </c>
       <c r="B97" s="2" t="n"/>
-      <c r="C97" s="14" t="n">
-        <v>58906</v>
-      </c>
-      <c r="D97" s="5" t="n"/>
-      <c r="E97" s="14" t="n">
-        <v>120792</v>
+      <c r="C97" s="9" t="n">
+        <v>157105.1</v>
+      </c>
+      <c r="D97" s="2" t="n"/>
+      <c r="E97" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F97" s="2" t="n"/>
     </row>
-    <row r="98">
+    <row r="98" ht="40.2" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Total Gastos actividades</t>
+          <t>Abarrotes Ceremonias /Meditaciones formales y otras provisiones</t>
         </is>
       </c>
       <c r="B98" s="2" t="n"/>
-      <c r="C98" s="9" t="n">
-        <v>5057129.85</v>
+      <c r="C98" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D98" s="2" t="n"/>
       <c r="E98" s="9" t="n">
-        <v>1402739.08</v>
+        <v>194916</v>
       </c>
       <c r="F98" s="2" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n"/>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Ceremonias</t>
+        </is>
+      </c>
       <c r="B99" s="2" t="n"/>
-      <c r="C99" s="2" t="n"/>
+      <c r="C99" s="9" t="n">
+        <v>283099.37</v>
+      </c>
       <c r="D99" s="2" t="n"/>
-      <c r="E99" s="2" t="n"/>
+      <c r="E99" s="9" t="n">
+        <v>109115.08</v>
+      </c>
       <c r="F99" s="2" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="13" t="inlineStr">
-        <is>
-          <t>Servicios Publicos y Otros</t>
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Grupos de Estudio</t>
         </is>
       </c>
       <c r="B100" s="2" t="n"/>
-      <c r="C100" s="2" t="n"/>
+      <c r="C100" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="D100" s="2" t="n"/>
-      <c r="E100" s="2" t="n"/>
+      <c r="E100" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F100" s="2" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>Electricidad</t>
-        </is>
-      </c>
-      <c r="B101" s="16" t="n"/>
-      <c r="C101" s="17" t="n">
-        <v>789610.3199999999</v>
-      </c>
-      <c r="D101" s="16" t="n"/>
-      <c r="E101" s="17" t="n">
-        <v>895550</v>
+          <t>Actividad de 50 aniversario</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n"/>
+      <c r="C101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2" t="n"/>
+      <c r="E101" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F101" s="2" t="n"/>
     </row>
-    <row r="102">
+    <row r="102" ht="27" customHeight="1">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>Telefono</t>
-        </is>
-      </c>
-      <c r="B102" s="16" t="n"/>
-      <c r="C102" s="17" t="n">
-        <v>566894.79</v>
-      </c>
-      <c r="D102" s="16" t="n"/>
-      <c r="E102" s="17" t="n">
-        <v>261964.01</v>
+          <t>Actividad de Ordenacion de Bodhi</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n"/>
+      <c r="C102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2" t="n"/>
+      <c r="E102" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F102" s="2" t="n"/>
     </row>
-    <row r="103">
+    <row r="103" ht="27" customHeight="1">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>Correo</t>
-        </is>
-      </c>
-      <c r="B103" s="16" t="n"/>
-      <c r="C103" s="17" t="n">
-        <v>3425</v>
-      </c>
-      <c r="D103" s="16" t="n"/>
-      <c r="E103" s="17" t="n">
-        <v>6470</v>
+          <t>Atencion de visitantes - 50 aniversario/ordenacion</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n"/>
+      <c r="C103" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F103" s="2" t="n"/>
     </row>
-    <row r="104">
+    <row r="104" ht="15" customHeight="1" thickBot="1">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>Servicios de arquitectura</t>
-        </is>
-      </c>
-      <c r="B104" s="16" t="n"/>
-      <c r="C104" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" s="16" t="n"/>
-      <c r="E104" s="22" t="n">
-        <v>0</v>
+          <t>Atencion de grupos externos</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n"/>
+      <c r="C104" s="14" t="n">
+        <v>58906</v>
+      </c>
+      <c r="D104" s="5" t="n"/>
+      <c r="E104" s="14" t="n">
+        <v>120792</v>
       </c>
       <c r="F104" s="2" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>Servicios de abogacia</t>
-        </is>
-      </c>
-      <c r="B105" s="16" t="n"/>
-      <c r="C105" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" s="16" t="n"/>
-      <c r="E105" s="22" t="n">
-        <v>0</v>
+          <t>Total Gastos actividades</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n"/>
+      <c r="C105" s="9" t="n">
+        <v>5061554.85</v>
+      </c>
+      <c r="D105" s="2" t="n"/>
+      <c r="E105" s="9" t="n">
+        <v>1402739.08</v>
       </c>
       <c r="F105" s="2" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Seguro de incendios</t>
-        </is>
-      </c>
-      <c r="B106" s="16" t="n"/>
-      <c r="C106" s="17" t="n">
-        <v>633076.16</v>
-      </c>
-      <c r="D106" s="16" t="n"/>
-      <c r="E106" s="17" t="n">
-        <v>734801.59</v>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
+      <c r="C106" s="2" t="n"/>
+      <c r="D106" s="2" t="n"/>
+      <c r="E106" s="2" t="n"/>
       <c r="F106" s="2" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>Seguro de riesgos del trabajo</t>
-        </is>
-      </c>
-      <c r="B107" s="16" t="n"/>
-      <c r="C107" s="17" t="n">
-        <v>60220</v>
-      </c>
-      <c r="D107" s="16" t="n"/>
-      <c r="E107" s="17" t="n">
-        <v>65111.77</v>
-      </c>
+      <c r="A107" s="13" t="inlineStr">
+        <is>
+          <t>Servicios Publicos y Otros</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n"/>
+      <c r="C107" s="2" t="n"/>
+      <c r="D107" s="2" t="n"/>
+      <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
     </row>
-    <row r="108" ht="15" customHeight="1" thickBot="1">
+    <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>Impuestos municipales</t>
+          <t>Electricidad</t>
         </is>
       </c>
       <c r="B108" s="16" t="n"/>
-      <c r="C108" s="18" t="n">
-        <v>485132.36</v>
-      </c>
-      <c r="D108" s="21" t="n"/>
-      <c r="E108" s="18" t="n">
-        <v>367937.26</v>
+      <c r="C108" s="17" t="n">
+        <v>789610.3199999999</v>
+      </c>
+      <c r="D108" s="16" t="n"/>
+      <c r="E108" s="17" t="n">
+        <v>895550</v>
       </c>
       <c r="F108" s="2" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>Total Gastos publicos y otros</t>
+          <t>Telefono</t>
         </is>
       </c>
       <c r="B109" s="16" t="n"/>
       <c r="C109" s="17" t="n">
-        <v>2538358.63</v>
+        <v>566894.79</v>
       </c>
       <c r="D109" s="16" t="n"/>
       <c r="E109" s="17" t="n">
-        <v>2331834.63</v>
+        <v>261964.01</v>
       </c>
       <c r="F109" s="2" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n"/>
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Correo</t>
+        </is>
+      </c>
       <c r="B110" s="16" t="n"/>
-      <c r="C110" s="16" t="n"/>
+      <c r="C110" s="17" t="n">
+        <v>3425</v>
+      </c>
       <c r="D110" s="16" t="n"/>
-      <c r="E110" s="16" t="n"/>
+      <c r="E110" s="17" t="n">
+        <v>6470</v>
+      </c>
       <c r="F110" s="2" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n"/>
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Servicios de arquitectura</t>
+        </is>
+      </c>
       <c r="B111" s="16" t="n"/>
-      <c r="C111" s="16" t="n"/>
+      <c r="C111" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="D111" s="16" t="n"/>
-      <c r="E111" s="16" t="n"/>
+      <c r="E111" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="F111" s="2" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="13" t="inlineStr">
-        <is>
-          <t>Gastos Generales</t>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Servicios de abogacia</t>
         </is>
       </c>
       <c r="B112" s="16" t="n"/>
-      <c r="C112" s="16" t="n"/>
+      <c r="C112" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="D112" s="16" t="n"/>
-      <c r="E112" s="16" t="n"/>
+      <c r="E112" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="F112" s="2" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>Papeleria y utiles</t>
+          <t>Seguro de incendios</t>
         </is>
       </c>
       <c r="B113" s="16" t="n"/>
       <c r="C113" s="17" t="n">
-        <v>309390.56</v>
+        <v>633076.16</v>
       </c>
       <c r="D113" s="16" t="n"/>
       <c r="E113" s="17" t="n">
-        <v>116482.65</v>
+        <v>734801.59</v>
       </c>
       <c r="F113" s="2" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Seguro de riesgos del trabajo</t>
         </is>
       </c>
       <c r="B114" s="16" t="n"/>
-      <c r="C114" s="22" t="n">
-        <v>0</v>
+      <c r="C114" s="17" t="n">
+        <v>60220</v>
       </c>
       <c r="D114" s="16" t="n"/>
-      <c r="E114" s="22" t="n">
-        <v>0</v>
+      <c r="E114" s="17" t="n">
+        <v>65111.77</v>
       </c>
       <c r="F114" s="2" t="n"/>
     </row>
-    <row r="115">
+    <row r="115" ht="15" customHeight="1" thickBot="1">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>Licencia mensual-Zoom</t>
+          <t>Impuestos municipales</t>
         </is>
       </c>
       <c r="B115" s="16" t="n"/>
-      <c r="C115" s="17" t="n">
-        <v>119387.31</v>
-      </c>
-      <c r="D115" s="16" t="n"/>
-      <c r="E115" s="17" t="n">
-        <v>120953.17</v>
+      <c r="C115" s="18" t="n">
+        <v>485132.36</v>
+      </c>
+      <c r="D115" s="21" t="n"/>
+      <c r="E115" s="18" t="n">
+        <v>367937.26</v>
       </c>
       <c r="F115" s="2" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>Licencia mensual - Calendly</t>
+          <t>Total Gastos publicos y otros</t>
         </is>
       </c>
       <c r="B116" s="16" t="n"/>
-      <c r="C116" s="22" t="n">
-        <v>0</v>
+      <c r="C116" s="17" t="n">
+        <v>2538358.63</v>
       </c>
       <c r="D116" s="16" t="n"/>
       <c r="E116" s="17" t="n">
-        <v>19458.1</v>
+        <v>2331834.63</v>
       </c>
       <c r="F116" s="2" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>Utensilios de cocina</t>
-        </is>
-      </c>
+      <c r="A117" s="2" t="n"/>
       <c r="B117" s="16" t="n"/>
-      <c r="C117" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="C117" s="16" t="n"/>
       <c r="D117" s="16" t="n"/>
-      <c r="E117" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E117" s="16" t="n"/>
       <c r="F117" s="2" t="n"/>
     </row>
-    <row r="118" ht="27" customHeight="1">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>Productos Farmaceuticos (botiquin)</t>
-        </is>
-      </c>
+    <row r="118">
+      <c r="A118" s="2" t="n"/>
       <c r="B118" s="16" t="n"/>
-      <c r="C118" s="17" t="n">
-        <v>228455</v>
-      </c>
+      <c r="C118" s="16" t="n"/>
       <c r="D118" s="16" t="n"/>
-      <c r="E118" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E118" s="16" t="n"/>
       <c r="F118" s="2" t="n"/>
     </row>
-    <row r="119" ht="15" customHeight="1" thickBot="1">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t>Materiales limpieza</t>
+    <row r="119">
+      <c r="A119" s="13" t="inlineStr">
+        <is>
+          <t>Gastos Generales</t>
         </is>
       </c>
       <c r="B119" s="16" t="n"/>
-      <c r="C119" s="18" t="n">
-        <v>512504.67</v>
-      </c>
-      <c r="D119" s="21" t="n"/>
-      <c r="E119" s="18" t="n">
-        <v>521017.3</v>
-      </c>
+      <c r="C119" s="16" t="n"/>
+      <c r="D119" s="16" t="n"/>
+      <c r="E119" s="16" t="n"/>
       <c r="F119" s="2" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>Total Gastos Generales</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="n"/>
+          <t>Papeleria y utiles</t>
+        </is>
+      </c>
+      <c r="B120" s="16" t="n"/>
       <c r="C120" s="17" t="n">
-        <v>1169737.55</v>
+        <v>309390.56</v>
       </c>
       <c r="D120" s="16" t="n"/>
       <c r="E120" s="17" t="n">
-        <v>777911.22</v>
+        <v>116482.65</v>
       </c>
       <c r="F120" s="2" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n"/>
-      <c r="B121" s="2" t="n"/>
-      <c r="C121" s="2" t="n"/>
-      <c r="D121" s="2" t="n"/>
-      <c r="E121" s="2" t="n"/>
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="B121" s="16" t="n"/>
+      <c r="C121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" s="16" t="n"/>
+      <c r="E121" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="F121" s="2" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="13" t="inlineStr">
-        <is>
-          <t>Retiros Personales</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="n"/>
-      <c r="C122" s="2" t="n"/>
-      <c r="D122" s="2" t="n"/>
-      <c r="E122" s="2" t="n"/>
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Licencia mensual-Zoom</t>
+        </is>
+      </c>
+      <c r="B122" s="16" t="n"/>
+      <c r="C122" s="17" t="n">
+        <v>119387.31</v>
+      </c>
+      <c r="D122" s="16" t="n"/>
+      <c r="E122" s="17" t="n">
+        <v>120953.17</v>
+      </c>
       <c r="F122" s="2" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>Retiros personales - Hospedaje</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="n"/>
-      <c r="C123" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2" t="n"/>
-      <c r="E123" s="22" t="n">
-        <v>0</v>
+          <t>Licencia mensual - Calendly</t>
+        </is>
+      </c>
+      <c r="B123" s="16" t="n"/>
+      <c r="C123" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" s="16" t="n"/>
+      <c r="E123" s="17" t="n">
+        <v>19458.1</v>
       </c>
       <c r="F123" s="2" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>Retiros personales - Alimentacion</t>
+          <t>Utensilios de cocina</t>
         </is>
       </c>
       <c r="B124" s="16" t="n"/>
-      <c r="C124" s="7" t="n">
+      <c r="C124" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="16" t="n"/>
-      <c r="E124" s="17" t="n">
-        <v>42448</v>
+      <c r="E124" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="F124" s="2" t="n"/>
     </row>
-    <row r="125" ht="15" customHeight="1" thickBot="1">
+    <row r="125" ht="27" customHeight="1">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>Retiros personales - Donaciones</t>
+          <t>Productos Farmaceuticos (botiquin)</t>
         </is>
       </c>
       <c r="B125" s="16" t="n"/>
-      <c r="C125" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" s="21" t="n"/>
-      <c r="E125" s="23" t="n">
+      <c r="C125" s="17" t="n">
+        <v>228455</v>
+      </c>
+      <c r="D125" s="16" t="n"/>
+      <c r="E125" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F125" s="2" t="n"/>
     </row>
-    <row r="126">
+    <row r="126" ht="15" customHeight="1" thickBot="1">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>Total Gasto de Donaciones</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="n"/>
-      <c r="C126" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2" t="n"/>
-      <c r="E126" s="9" t="n">
-        <v>42448</v>
+          <t>Materiales limpieza</t>
+        </is>
+      </c>
+      <c r="B126" s="16" t="n"/>
+      <c r="C126" s="18" t="n">
+        <v>512504.67</v>
+      </c>
+      <c r="D126" s="21" t="n"/>
+      <c r="E126" s="18" t="n">
+        <v>521017.3</v>
       </c>
       <c r="F126" s="2" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n"/>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Total Gastos Generales</t>
+        </is>
+      </c>
       <c r="B127" s="2" t="n"/>
-      <c r="C127" s="2" t="n"/>
-      <c r="D127" s="2" t="n"/>
-      <c r="E127" s="2" t="n"/>
+      <c r="C127" s="17" t="n">
+        <v>1169737.55</v>
+      </c>
+      <c r="D127" s="16" t="n"/>
+      <c r="E127" s="17" t="n">
+        <v>777911.22</v>
+      </c>
       <c r="F127" s="2" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="13" t="inlineStr">
-        <is>
-          <t>Donaciones</t>
-        </is>
-      </c>
+      <c r="A128" s="2" t="n"/>
       <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="n"/>
       <c r="D128" s="2" t="n"/>
@@ -3754,83 +3701,83 @@
       <c r="F128" s="2" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>Donacion</t>
+      <c r="A129" s="13" t="inlineStr">
+        <is>
+          <t>Retiros Personales</t>
         </is>
       </c>
       <c r="B129" s="2" t="n"/>
-      <c r="C129" s="9" t="n">
-        <v>260668.57</v>
-      </c>
+      <c r="C129" s="2" t="n"/>
       <c r="D129" s="2" t="n"/>
-      <c r="E129" s="9" t="n">
-        <v>10000</v>
-      </c>
+      <c r="E129" s="2" t="n"/>
       <c r="F129" s="2" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>Donacion de ceremonias</t>
+          <t>Retiros personales - Hospedaje</t>
         </is>
       </c>
       <c r="B130" s="2" t="n"/>
-      <c r="C130" s="9" t="n">
-        <v>1391290</v>
+      <c r="C130" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D130" s="2" t="n"/>
-      <c r="E130" s="9" t="n">
-        <v>116290</v>
+      <c r="E130" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="F130" s="2" t="n"/>
     </row>
-    <row r="131" ht="15" customHeight="1" thickBot="1">
+    <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>Donacion de Alivio de Hambre</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="n"/>
-      <c r="C131" s="14" t="n">
-        <v>126000</v>
-      </c>
-      <c r="D131" s="5" t="n"/>
-      <c r="E131" s="20" t="n">
-        <v>0</v>
+          <t>Retiros personales - Alimentacion</t>
+        </is>
+      </c>
+      <c r="B131" s="16" t="n"/>
+      <c r="C131" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" s="16" t="n"/>
+      <c r="E131" s="17" t="n">
+        <v>42448</v>
       </c>
       <c r="F131" s="2" t="n"/>
     </row>
-    <row r="132">
+    <row r="132" ht="15" customHeight="1" thickBot="1">
       <c r="A132" s="2" t="inlineStr">
         <is>
+          <t>Retiros personales - Donaciones</t>
+        </is>
+      </c>
+      <c r="B132" s="16" t="n"/>
+      <c r="C132" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" s="21" t="n"/>
+      <c r="E132" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" s="2" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
           <t>Total Gasto de Donaciones</t>
         </is>
       </c>
-      <c r="B132" s="2" t="n"/>
-      <c r="C132" s="9" t="n">
-        <v>1777958.57</v>
-      </c>
-      <c r="D132" s="2" t="n"/>
-      <c r="E132" s="9" t="n">
-        <v>126290</v>
-      </c>
-      <c r="F132" s="2" t="n"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n"/>
       <c r="B133" s="2" t="n"/>
-      <c r="C133" s="2" t="n"/>
+      <c r="C133" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="D133" s="2" t="n"/>
-      <c r="E133" s="2" t="n"/>
+      <c r="E133" s="9" t="n">
+        <v>42448</v>
+      </c>
       <c r="F133" s="2" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="13" t="inlineStr">
-        <is>
-          <t>Gastos Financieros</t>
-        </is>
-      </c>
+      <c r="A134" s="2" t="n"/>
       <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="n"/>
       <c r="D134" s="2" t="n"/>
@@ -3838,75 +3785,83 @@
       <c r="F134" s="2" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>Diferencial Cambiario</t>
+      <c r="A135" s="13" t="inlineStr">
+        <is>
+          <t>Donaciones</t>
         </is>
       </c>
       <c r="B135" s="2" t="n"/>
-      <c r="C135" s="9" t="n">
-        <v>10348101.24</v>
-      </c>
+      <c r="C135" s="2" t="n"/>
       <c r="D135" s="2" t="n"/>
-      <c r="E135" s="9" t="n">
-        <v>11285493.62</v>
-      </c>
+      <c r="E135" s="2" t="n"/>
       <c r="F135" s="2" t="n"/>
     </row>
-    <row r="136" ht="15" customHeight="1" thickBot="1">
+    <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>Comision Bancaria</t>
+          <t>Donacion</t>
         </is>
       </c>
       <c r="B136" s="2" t="n"/>
-      <c r="C136" s="14" t="n">
-        <v>105050.37</v>
-      </c>
-      <c r="D136" s="5" t="n"/>
-      <c r="E136" s="14" t="n">
-        <v>135628.34</v>
+      <c r="C136" s="9" t="n">
+        <v>260668.57</v>
+      </c>
+      <c r="D136" s="2" t="n"/>
+      <c r="E136" s="9" t="n">
+        <v>10000</v>
       </c>
       <c r="F136" s="2" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>Total Gastos Financieros</t>
+          <t>Donacion de ceremonias</t>
         </is>
       </c>
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="9" t="n">
-        <v>10453151.61</v>
+        <v>1391290</v>
       </c>
       <c r="D137" s="2" t="n"/>
       <c r="E137" s="9" t="n">
-        <v>11421121.97</v>
+        <v>116290</v>
       </c>
       <c r="F137" s="2" t="n"/>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n"/>
+    <row r="138" ht="15" customHeight="1" thickBot="1">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Donacion de Alivio de Hambre</t>
+        </is>
+      </c>
       <c r="B138" s="2" t="n"/>
-      <c r="C138" s="2" t="n"/>
-      <c r="D138" s="2" t="n"/>
-      <c r="E138" s="2" t="n"/>
+      <c r="C138" s="14" t="n">
+        <v>126000</v>
+      </c>
+      <c r="D138" s="5" t="n"/>
+      <c r="E138" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F138" s="2" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n"/>
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>Total Gasto de Donaciones</t>
+        </is>
+      </c>
       <c r="B139" s="2" t="n"/>
-      <c r="C139" s="2" t="n"/>
+      <c r="C139" s="9" t="n">
+        <v>1777958.57</v>
+      </c>
       <c r="D139" s="2" t="n"/>
-      <c r="E139" s="2" t="n"/>
+      <c r="E139" s="9" t="n">
+        <v>126290</v>
+      </c>
       <c r="F139" s="2" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="13" t="inlineStr">
-        <is>
-          <t>Gastos miscelaneos</t>
-        </is>
-      </c>
+      <c r="A140" s="2" t="n"/>
       <c r="B140" s="2" t="n"/>
       <c r="C140" s="2" t="n"/>
       <c r="D140" s="2" t="n"/>
@@ -3914,126 +3869,102 @@
       <c r="F140" s="2" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>Calendarios</t>
+      <c r="A141" s="13" t="inlineStr">
+        <is>
+          <t>Gastos Financieros</t>
         </is>
       </c>
       <c r="B141" s="2" t="n"/>
-      <c r="C141" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="C141" s="2" t="n"/>
       <c r="D141" s="2" t="n"/>
-      <c r="E141" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E141" s="2" t="n"/>
       <c r="F141" s="2" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>Cine almuerzo</t>
+          <t>Diferencial Cambiario</t>
         </is>
       </c>
       <c r="B142" s="2" t="n"/>
-      <c r="C142" s="7" t="n">
-        <v>0</v>
+      <c r="C142" s="9" t="n">
+        <v>10347234.63</v>
       </c>
       <c r="D142" s="2" t="n"/>
       <c r="E142" s="9" t="n">
-        <v>41036</v>
+        <v>11285493.62</v>
       </c>
       <c r="F142" s="2" t="n"/>
     </row>
-    <row r="143">
+    <row r="143" ht="15" customHeight="1" thickBot="1">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>Petates</t>
+          <t>Comision Bancaria</t>
         </is>
       </c>
       <c r="B143" s="2" t="n"/>
-      <c r="C143" s="9" t="n">
-        <v>90000</v>
-      </c>
-      <c r="D143" s="2" t="n"/>
-      <c r="E143" s="9" t="n">
-        <v>53000</v>
+      <c r="C143" s="14" t="n">
+        <v>105050.37</v>
+      </c>
+      <c r="D143" s="5" t="n"/>
+      <c r="E143" s="14" t="n">
+        <v>135628.34</v>
       </c>
       <c r="F143" s="2" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>Tunicas y Bluzones</t>
+          <t>Total Gastos Financieros</t>
         </is>
       </c>
       <c r="B144" s="2" t="n"/>
-      <c r="C144" s="7" t="n">
-        <v>0</v>
+      <c r="C144" s="9" t="n">
+        <v>10452285</v>
       </c>
       <c r="D144" s="2" t="n"/>
-      <c r="E144" s="7" t="n">
-        <v>0</v>
+      <c r="E144" s="9" t="n">
+        <v>11421121.97</v>
       </c>
       <c r="F144" s="2" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
+      <c r="A145" s="2" t="n"/>
       <c r="B145" s="2" t="n"/>
-      <c r="C145" s="9" t="n">
-        <v>68160</v>
-      </c>
+      <c r="C145" s="2" t="n"/>
       <c r="D145" s="2" t="n"/>
-      <c r="E145" s="9" t="n">
-        <v>141524.41</v>
-      </c>
+      <c r="E145" s="2" t="n"/>
       <c r="F145" s="2" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>Libros de cantos</t>
-        </is>
-      </c>
+      <c r="A146" s="2" t="n"/>
       <c r="B146" s="2" t="n"/>
-      <c r="C146" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="C146" s="2" t="n"/>
       <c r="D146" s="2" t="n"/>
-      <c r="E146" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E146" s="2" t="n"/>
       <c r="F146" s="2" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>Libros de sutras</t>
-        </is>
-      </c>
-      <c r="B147" s="16" t="n"/>
-      <c r="C147" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A147" s="13" t="inlineStr">
+        <is>
+          <t>Gastos miscelaneos</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n"/>
+      <c r="C147" s="2" t="n"/>
       <c r="D147" s="2" t="n"/>
-      <c r="E147" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E147" s="2" t="n"/>
       <c r="F147" s="2" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>Materiales de altares</t>
-        </is>
-      </c>
-      <c r="B148" s="16" t="n"/>
-      <c r="C148" s="9" t="n">
-        <v>105030</v>
+          <t>Calendarios</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n"/>
+      <c r="C148" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D148" s="2" t="n"/>
       <c r="E148" s="7" t="n">
@@ -4044,7 +3975,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>Teishos</t>
+          <t>Cine almuerzo</t>
         </is>
       </c>
       <c r="B149" s="2" t="n"/>
@@ -4052,36 +3983,36 @@
         <v>0</v>
       </c>
       <c r="D149" s="2" t="n"/>
-      <c r="E149" s="7" t="n">
-        <v>0</v>
+      <c r="E149" s="9" t="n">
+        <v>41036</v>
       </c>
       <c r="F149" s="2" t="n"/>
     </row>
-    <row r="150" ht="27" customHeight="1">
+    <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>Otros gastos (ver detalle en cuenta)</t>
+          <t>Petates</t>
         </is>
       </c>
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="9" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="D150" s="2" t="n"/>
       <c r="E150" s="9" t="n">
-        <v>373924.8</v>
+        <v>53000</v>
       </c>
       <c r="F150" s="2" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>Cursos y charlas externas</t>
+          <t>Tunicas y Bluzones</t>
         </is>
       </c>
       <c r="B151" s="2" t="n"/>
-      <c r="C151" s="9" t="n">
-        <v>52255</v>
+      <c r="C151" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D151" s="2" t="n"/>
       <c r="E151" s="7" t="n">
@@ -4089,18 +4020,18 @@
       </c>
       <c r="F151" s="2" t="n"/>
     </row>
-    <row r="152" ht="15" customHeight="1" thickBot="1">
+    <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>Controles de porton</t>
+          <t>Menaje</t>
         </is>
       </c>
       <c r="B152" s="2" t="n"/>
-      <c r="C152" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" s="5" t="n"/>
-      <c r="E152" s="20" t="n">
+      <c r="C152" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2" t="n"/>
+      <c r="E152" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F152" s="2" t="n"/>
@@ -4108,269 +4039,397 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>Total Gastos Miscelaneos</t>
+          <t>Libros</t>
         </is>
       </c>
       <c r="B153" s="2" t="n"/>
       <c r="C153" s="9" t="n">
-        <v>327445</v>
+        <v>68160</v>
       </c>
       <c r="D153" s="2" t="n"/>
       <c r="E153" s="9" t="n">
-        <v>609485.21</v>
+        <v>141524.41</v>
       </c>
       <c r="F153" s="2" t="n"/>
     </row>
-    <row r="154" ht="15" customHeight="1" thickBot="1">
-      <c r="A154" s="2" t="n"/>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Libros de cantos</t>
+        </is>
+      </c>
       <c r="B154" s="2" t="n"/>
-      <c r="C154" s="5" t="n"/>
-      <c r="D154" s="5" t="n"/>
-      <c r="E154" s="5" t="n"/>
+      <c r="C154" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2" t="n"/>
+      <c r="E154" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F154" s="2" t="n"/>
     </row>
-    <row r="155" ht="15" customHeight="1" thickBot="1">
-      <c r="A155" s="3" t="inlineStr">
-        <is>
-          <t>Total Gastos</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="n"/>
-      <c r="C155" s="19" t="n">
-        <v>27619257.26</v>
-      </c>
-      <c r="D155" s="5" t="n"/>
-      <c r="E155" s="19" t="n">
-        <v>18840823.97</v>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>Libros de sutras</t>
+        </is>
+      </c>
+      <c r="B155" s="16" t="n"/>
+      <c r="C155" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2" t="n"/>
+      <c r="E155" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F155" s="2" t="n"/>
     </row>
-    <row r="156" ht="15" customHeight="1" thickBot="1">
-      <c r="A156" s="2" t="n"/>
-      <c r="B156" s="2" t="n"/>
-      <c r="C156" s="5" t="n"/>
-      <c r="D156" s="5" t="n"/>
-      <c r="E156" s="5" t="n"/>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Materiales de altares</t>
+        </is>
+      </c>
+      <c r="B156" s="16" t="n"/>
+      <c r="C156" s="9" t="n">
+        <v>105030</v>
+      </c>
+      <c r="D156" s="2" t="n"/>
+      <c r="E156" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F156" s="2" t="n"/>
     </row>
-    <row r="157" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A157" s="3" t="inlineStr">
-        <is>
-          <t>Diferencia entre ingresos gastos antes de inversiones</t>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>Teishos</t>
         </is>
       </c>
       <c r="B157" s="2" t="n"/>
-      <c r="C157" s="19" t="n">
-        <v>-5297650.25</v>
-      </c>
-      <c r="D157" s="5" t="n"/>
-      <c r="E157" s="19" t="n">
-        <v>8651009.859999999</v>
+      <c r="C157" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2" t="n"/>
+      <c r="E157" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F157" s="2" t="n"/>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n"/>
+    <row r="158" ht="27" customHeight="1">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Otros gastos (ver detalle en cuenta)</t>
+        </is>
+      </c>
       <c r="B158" s="2" t="n"/>
-      <c r="C158" s="2" t="n"/>
+      <c r="C158" s="9" t="n">
+        <v>12000</v>
+      </c>
       <c r="D158" s="2" t="n"/>
-      <c r="E158" s="2" t="n"/>
+      <c r="E158" s="9" t="n">
+        <v>373924.8</v>
+      </c>
       <c r="F158" s="2" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="inlineStr">
-        <is>
-          <t>Inversiones en equipo y edificio</t>
-        </is>
-      </c>
-      <c r="B159" s="24" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D159" s="24" t="n">
-        <v>2022</v>
-      </c>
-      <c r="F159" s="24" t="inlineStr">
-        <is>
-          <t>Comentarios</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>Cursos y charlas externas</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n"/>
+      <c r="C159" s="9" t="n">
+        <v>52255</v>
+      </c>
+      <c r="D159" s="2" t="n"/>
+      <c r="E159" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" s="2" t="n"/>
+    </row>
+    <row r="160" ht="15" customHeight="1" thickBot="1">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>Remodelacion</t>
+          <t>Controles de porton</t>
         </is>
       </c>
       <c r="B160" s="2" t="n"/>
-      <c r="C160" s="9" t="n">
-        <v>425000</v>
-      </c>
-      <c r="D160" s="2" t="n"/>
-      <c r="E160" s="9" t="n">
-        <v>5344619.04</v>
+      <c r="C160" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" s="5" t="n"/>
+      <c r="E160" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="F160" s="2" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>Construccion</t>
+          <t>Total Gastos Miscelaneos</t>
         </is>
       </c>
       <c r="B161" s="2" t="n"/>
-      <c r="C161" s="7" t="n">
-        <v>0</v>
+      <c r="C161" s="9" t="n">
+        <v>327445</v>
       </c>
       <c r="D161" s="2" t="n"/>
-      <c r="E161" s="7" t="n">
-        <v>0</v>
+      <c r="E161" s="9" t="n">
+        <v>609485.21</v>
       </c>
       <c r="F161" s="2" t="n"/>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>Inversiones tecnologicas</t>
-        </is>
-      </c>
+    <row r="162" ht="15" customHeight="1" thickBot="1">
+      <c r="A162" s="2" t="n"/>
       <c r="B162" s="2" t="n"/>
-      <c r="C162" s="9" t="n">
-        <v>134485</v>
-      </c>
-      <c r="D162" s="2" t="n"/>
-      <c r="E162" s="9" t="n">
-        <v>839367.3100000001</v>
-      </c>
+      <c r="C162" s="5" t="n"/>
+      <c r="D162" s="5" t="n"/>
+      <c r="E162" s="5" t="n"/>
       <c r="F162" s="2" t="n"/>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>Equipo de cocina</t>
+    <row r="163" ht="15" customHeight="1" thickBot="1">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>Total Gastos</t>
         </is>
       </c>
       <c r="B163" s="2" t="n"/>
-      <c r="C163" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2" t="n"/>
-      <c r="E163" s="7" t="n">
-        <v>0</v>
+      <c r="C163" s="19" t="n">
+        <v>27635810.65</v>
+      </c>
+      <c r="D163" s="5" t="n"/>
+      <c r="E163" s="19" t="n">
+        <v>18840823.97</v>
       </c>
       <c r="F163" s="2" t="n"/>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>Mobiliario</t>
-        </is>
-      </c>
+    <row r="164" ht="15" customHeight="1" thickBot="1">
+      <c r="A164" s="2" t="n"/>
       <c r="B164" s="2" t="n"/>
-      <c r="C164" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2" t="n"/>
-      <c r="E164" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="C164" s="5" t="n"/>
+      <c r="D164" s="5" t="n"/>
+      <c r="E164" s="5" t="n"/>
       <c r="F164" s="2" t="n"/>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>Dispensadores de baño</t>
+    <row r="165" ht="27.6" customHeight="1" thickBot="1">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>Diferencia entre ingresos gastos antes de inversiones</t>
         </is>
       </c>
       <c r="B165" s="2" t="n"/>
-      <c r="C165" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2" t="n"/>
-      <c r="E165" s="7" t="n">
-        <v>0</v>
+      <c r="C165" s="19" t="n">
+        <v>-4913160.67</v>
+      </c>
+      <c r="D165" s="5" t="n"/>
+      <c r="E165" s="19" t="n">
+        <v>8651009.859999999</v>
       </c>
       <c r="F165" s="2" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>Equipo de computo</t>
-        </is>
-      </c>
+      <c r="A166" s="2" t="n"/>
       <c r="B166" s="2" t="n"/>
-      <c r="C166" s="9" t="n">
-        <v>532851.89</v>
-      </c>
+      <c r="C166" s="2" t="n"/>
       <c r="D166" s="2" t="n"/>
-      <c r="E166" s="9" t="n">
-        <v>88000</v>
-      </c>
+      <c r="E166" s="2" t="n"/>
       <c r="F166" s="2" t="n"/>
     </row>
-    <row r="167" ht="15" customHeight="1" thickBot="1">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>Otro equipo</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="n"/>
-      <c r="C167" s="14" t="n">
-        <v>396277.5</v>
-      </c>
-      <c r="D167" s="5" t="n"/>
-      <c r="E167" s="14" t="n">
-        <v>179976</v>
-      </c>
-      <c r="F167" s="2" t="n"/>
-    </row>
-    <row r="168" ht="27" customHeight="1">
+    <row r="167">
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>Inversiones en equipo y edificio</t>
+        </is>
+      </c>
+      <c r="B167" s="24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D167" s="24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F167" s="24" t="inlineStr">
+        <is>
+          <t>Comentarios</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>Total Inversiones en equipo y edificio</t>
+          <t>Remodelacion</t>
         </is>
       </c>
       <c r="B168" s="2" t="n"/>
       <c r="C168" s="9" t="n">
-        <v>1488614.39</v>
+        <v>425000</v>
       </c>
       <c r="D168" s="2" t="n"/>
       <c r="E168" s="9" t="n">
+        <v>5344619.04</v>
+      </c>
+      <c r="F168" s="2" t="n"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>Construccion</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n"/>
+      <c r="C169" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2" t="n"/>
+      <c r="E169" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="2" t="n"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Inversiones tecnologicas</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n"/>
+      <c r="C170" s="9" t="n">
+        <v>134485</v>
+      </c>
+      <c r="D170" s="2" t="n"/>
+      <c r="E170" s="9" t="n">
+        <v>839367.3100000001</v>
+      </c>
+      <c r="F170" s="2" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Equipo de cocina</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n"/>
+      <c r="C171" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2" t="n"/>
+      <c r="E171" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" s="2" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Mobiliario</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n"/>
+      <c r="C172" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2" t="n"/>
+      <c r="E172" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" s="2" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Dispensadores de baño</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n"/>
+      <c r="C173" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2" t="n"/>
+      <c r="E173" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" s="2" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Equipo de computo</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n"/>
+      <c r="C174" s="9" t="n">
+        <v>532851.89</v>
+      </c>
+      <c r="D174" s="2" t="n"/>
+      <c r="E174" s="9" t="n">
+        <v>88000</v>
+      </c>
+      <c r="F174" s="2" t="n"/>
+    </row>
+    <row r="175" ht="15" customHeight="1" thickBot="1">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>Otro equipo</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n"/>
+      <c r="C175" s="14" t="n">
+        <v>396277.5</v>
+      </c>
+      <c r="D175" s="5" t="n"/>
+      <c r="E175" s="14" t="n">
+        <v>179976</v>
+      </c>
+      <c r="F175" s="2" t="n"/>
+    </row>
+    <row r="176" ht="27" customHeight="1">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Total Inversiones en equipo y edificio</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n"/>
+      <c r="C176" s="9" t="n">
+        <v>1488614.39</v>
+      </c>
+      <c r="D176" s="2" t="n"/>
+      <c r="E176" s="9" t="n">
         <v>6451962.35</v>
       </c>
-      <c r="F168" s="2" t="n"/>
-    </row>
-    <row r="169" ht="15" customHeight="1" thickBot="1">
-      <c r="A169" s="2" t="n"/>
-      <c r="B169" s="2" t="n"/>
-      <c r="C169" s="5" t="n"/>
-      <c r="D169" s="5" t="n"/>
-      <c r="E169" s="5" t="n"/>
-      <c r="F169" s="2" t="n"/>
-    </row>
-    <row r="170" ht="40.8" customHeight="1" thickBot="1">
-      <c r="A170" s="3" t="inlineStr">
+      <c r="F176" s="2" t="n"/>
+    </row>
+    <row r="177" ht="15" customHeight="1" thickBot="1">
+      <c r="A177" s="2" t="n"/>
+      <c r="B177" s="2" t="n"/>
+      <c r="C177" s="5" t="n"/>
+      <c r="D177" s="5" t="n"/>
+      <c r="E177" s="5" t="n"/>
+      <c r="F177" s="2" t="n"/>
+    </row>
+    <row r="178" ht="40.8" customHeight="1" thickBot="1">
+      <c r="A178" s="3" t="inlineStr">
         <is>
           <t>Diferencia entre ingresos, gastos e inversion en equipo y edificio</t>
         </is>
       </c>
-      <c r="B170" s="2" t="n"/>
-      <c r="C170" s="19" t="n">
-        <v>-6786264.64</v>
-      </c>
-      <c r="D170" s="5" t="n"/>
-      <c r="E170" s="19" t="n">
+      <c r="B178" s="2" t="n"/>
+      <c r="C178" s="19" t="n">
+        <v>-6401775.07</v>
+      </c>
+      <c r="D178" s="5" t="n"/>
+      <c r="E178" s="19" t="n">
         <v>2199047.51</v>
       </c>
-      <c r="F170" s="2" t="n"/>
+      <c r="F178" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="B167:C167"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="gid=1453964497" display="gid=1453964497"/>
